--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,25 +629,25 @@
         <v>1.000186224024682</v>
       </c>
       <c r="D3">
-        <v>0.9992551186075491</v>
+        <v>0.9995903179903995</v>
       </c>
       <c r="E3">
-        <v>1.000186224024682</v>
+        <v>1.000496586154503</v>
       </c>
       <c r="F3">
         <v>1.000186224024682</v>
       </c>
       <c r="G3">
-        <v>1.000496586154503</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="H3">
-        <v>0.9995903179903998</v>
+        <v>0.9992551186075491</v>
       </c>
       <c r="I3">
+        <v>0.9992551186075491</v>
+      </c>
+      <c r="J3">
         <v>1.000186224024682</v>
-      </c>
-      <c r="J3">
-        <v>0.9992551186075491</v>
       </c>
       <c r="K3">
         <v>1.000186224024682</v>
@@ -788,7 +680,7 @@
         <v>0.9999834491377498</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>1.000359500144599</v>
       </c>
       <c r="D4">
-        <v>0.9985620147739913</v>
+        <v>0.9992091114104368</v>
       </c>
       <c r="E4">
-        <v>1.000359500144599</v>
+        <v>1.000958653249511</v>
       </c>
       <c r="F4">
         <v>1.000359500144599</v>
       </c>
       <c r="G4">
-        <v>1.000958653249511</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="H4">
-        <v>0.9992091114104368</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="I4">
+        <v>0.9985620147739913</v>
+      </c>
+      <c r="J4">
         <v>1.000359500144599</v>
-      </c>
-      <c r="J4">
-        <v>0.9985620147739913</v>
       </c>
       <c r="K4">
         <v>1.000359500144599</v>
@@ -850,7 +742,7 @@
         <v>0.9999680466446227</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>1.000688936585136</v>
       </c>
       <c r="D5">
-        <v>0.997244276420573</v>
+        <v>0.9984843554528625</v>
       </c>
       <c r="E5">
-        <v>1.000688936585136</v>
+        <v>1.00183714359151</v>
       </c>
       <c r="F5">
         <v>1.000688936585136</v>
       </c>
       <c r="G5">
-        <v>1.00183714359151</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="H5">
-        <v>0.9984843554528625</v>
+        <v>0.997244276420573</v>
       </c>
       <c r="I5">
+        <v>0.997244276420573</v>
+      </c>
+      <c r="J5">
         <v>1.000688936585136</v>
-      </c>
-      <c r="J5">
-        <v>0.997244276420573</v>
       </c>
       <c r="K5">
         <v>1.000688936585136</v>
@@ -912,7 +804,7 @@
         <v>0.9999387642033923</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,25 +815,25 @@
         <v>1.001010450140336</v>
       </c>
       <c r="D6">
-        <v>0.9959582424610011</v>
+        <v>0.99777703348082</v>
       </c>
       <c r="E6">
-        <v>1.001010450140336</v>
+        <v>1.002694509830448</v>
       </c>
       <c r="F6">
         <v>1.001010450140336</v>
       </c>
       <c r="G6">
-        <v>1.002694509830448</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="H6">
-        <v>0.99777703348082</v>
+        <v>0.9959582424610011</v>
       </c>
       <c r="I6">
+        <v>0.9959582424610011</v>
+      </c>
+      <c r="J6">
         <v>1.001010450140336</v>
-      </c>
-      <c r="J6">
-        <v>0.9959582424610011</v>
       </c>
       <c r="K6">
         <v>1.001010450140336</v>
@@ -974,7 +866,7 @@
         <v>0.9999101893655461</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>1.00001327941879</v>
       </c>
       <c r="D7">
-        <v>0.9999468947759673</v>
+        <v>0.9999707951534312</v>
       </c>
       <c r="E7">
-        <v>1.00001327941879</v>
+        <v>1.000035402156081</v>
       </c>
       <c r="F7">
         <v>1.00001327941879</v>
       </c>
       <c r="G7">
-        <v>1.000035402156081</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="H7">
-        <v>0.999970795153431</v>
+        <v>0.999946894775967</v>
       </c>
       <c r="I7">
+        <v>0.999946894775967</v>
+      </c>
+      <c r="J7">
         <v>1.00001327941879</v>
-      </c>
-      <c r="J7">
-        <v>0.9999468947759673</v>
       </c>
       <c r="K7">
         <v>1.00001327941879</v>
@@ -1012,10 +904,10 @@
         <v>1.00001327941879</v>
       </c>
       <c r="M7">
-        <v>0.9999800870973785</v>
+        <v>0.9999800870973783</v>
       </c>
       <c r="N7">
-        <v>0.9999800870973785</v>
+        <v>0.9999800870973783</v>
       </c>
       <c r="O7">
         <v>0.9999769897827293</v>
@@ -1033,10 +925,10 @@
         <v>0.999996683258084</v>
       </c>
       <c r="T7">
-        <v>0.9999988217236413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999988217236414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1047,25 +939,25 @@
         <v>1.000033842072742</v>
       </c>
       <c r="D8">
-        <v>0.9998646443478421</v>
+        <v>0.9999255575191442</v>
       </c>
       <c r="E8">
-        <v>1.000033842072742</v>
+        <v>1.000090235492312</v>
       </c>
       <c r="F8">
         <v>1.000033842072742</v>
       </c>
       <c r="G8">
-        <v>1.000090235492312</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="H8">
-        <v>0.9999255575191442</v>
+        <v>0.9998646443478417</v>
       </c>
       <c r="I8">
+        <v>0.9998646443478417</v>
+      </c>
+      <c r="J8">
         <v>1.000033842072742</v>
-      </c>
-      <c r="J8">
-        <v>0.9998646443478421</v>
       </c>
       <c r="K8">
         <v>1.000033842072742</v>
@@ -1074,13 +966,13 @@
         <v>1.000033842072742</v>
       </c>
       <c r="M8">
-        <v>0.9999492432102921</v>
+        <v>0.9999492432102919</v>
       </c>
       <c r="N8">
-        <v>0.9999492432102921</v>
+        <v>0.9999492432102919</v>
       </c>
       <c r="O8">
-        <v>0.9999413479799095</v>
+        <v>0.9999413479799094</v>
       </c>
       <c r="P8">
         <v>0.9999774428311087</v>
@@ -1098,7 +990,7 @@
         <v>0.9999969939295874</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,25 +1001,25 @@
         <v>1.00004738270163</v>
       </c>
       <c r="D9">
-        <v>0.9998104827459313</v>
+        <v>0.999895768899964</v>
       </c>
       <c r="E9">
-        <v>1.00004738270163</v>
+        <v>1.000126343422665</v>
       </c>
       <c r="F9">
         <v>1.00004738270163</v>
       </c>
       <c r="G9">
-        <v>1.000126343422665</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="H9">
-        <v>0.999895768899964</v>
+        <v>0.9998104827459313</v>
       </c>
       <c r="I9">
+        <v>0.9998104827459313</v>
+      </c>
+      <c r="J9">
         <v>1.00004738270163</v>
-      </c>
-      <c r="J9">
-        <v>0.9998104827459313</v>
       </c>
       <c r="K9">
         <v>1.00004738270163</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999957905289083</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,25 +1063,25 @@
         <v>1.000102163945281</v>
       </c>
       <c r="D10">
-        <v>0.9995913551177344</v>
+        <v>0.9997752488185601</v>
       </c>
       <c r="E10">
-        <v>1.000102163945281</v>
+        <v>1.000272428112773</v>
       </c>
       <c r="F10">
         <v>1.000102163945281</v>
       </c>
       <c r="G10">
-        <v>1.000272428112773</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="H10">
-        <v>0.9997752488185604</v>
+        <v>0.9995913551177348</v>
       </c>
       <c r="I10">
+        <v>0.9995913551177348</v>
+      </c>
+      <c r="J10">
         <v>1.000102163945281</v>
-      </c>
-      <c r="J10">
-        <v>0.9995913551177344</v>
       </c>
       <c r="K10">
         <v>1.000102163945281</v>
@@ -1198,10 +1090,10 @@
         <v>1.000102163945281</v>
       </c>
       <c r="M10">
-        <v>0.9998467595315076</v>
+        <v>0.9998467595315077</v>
       </c>
       <c r="N10">
-        <v>0.9998467595315076</v>
+        <v>0.9998467595315077</v>
       </c>
       <c r="O10">
         <v>0.9998229226271919</v>
@@ -1219,10 +1111,10 @@
         <v>0.9999744617383941</v>
       </c>
       <c r="T10">
-        <v>0.999990920647485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9999909206474848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,25 +1125,25 @@
         <v>1.000169464490425</v>
       </c>
       <c r="D11">
-        <v>0.999322153909101</v>
+        <v>0.9996271880439187</v>
       </c>
       <c r="E11">
-        <v>1.000169464490425</v>
+        <v>1.000451895256027</v>
       </c>
       <c r="F11">
         <v>1.000169464490425</v>
       </c>
       <c r="G11">
-        <v>1.000451895256027</v>
+        <v>1.000169464490425</v>
       </c>
       <c r="H11">
-        <v>0.9996271880439187</v>
+        <v>0.999322153909101</v>
       </c>
       <c r="I11">
+        <v>0.999322153909101</v>
+      </c>
+      <c r="J11">
         <v>1.000169464490425</v>
-      </c>
-      <c r="J11">
-        <v>0.999322153909101</v>
       </c>
       <c r="K11">
         <v>1.000169464490425</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999849384467203</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,25 +1187,25 @@
         <v>0.9984980588624283</v>
       </c>
       <c r="D12">
-        <v>1.006007763657166</v>
+        <v>1.003304276780935</v>
       </c>
       <c r="E12">
-        <v>0.9984980588624283</v>
+        <v>0.9959948191256445</v>
       </c>
       <c r="F12">
         <v>0.9984980588624283</v>
       </c>
       <c r="G12">
-        <v>0.9959948191256445</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="H12">
-        <v>1.003304276780935</v>
+        <v>1.006007763657166</v>
       </c>
       <c r="I12">
+        <v>1.006007763657166</v>
+      </c>
+      <c r="J12">
         <v>0.9984980588624283</v>
-      </c>
-      <c r="J12">
-        <v>1.006007763657166</v>
       </c>
       <c r="K12">
         <v>0.9984980588624283</v>
@@ -1346,7 +1238,7 @@
         <v>1.000133506025172</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,25 +1249,25 @@
         <v>0.9996122181905323</v>
       </c>
       <c r="D13">
-        <v>1.001551127811809</v>
+        <v>1.000853125577563</v>
       </c>
       <c r="E13">
-        <v>0.9996122181905323</v>
+        <v>0.9989659107180929</v>
       </c>
       <c r="F13">
         <v>0.9996122181905323</v>
       </c>
       <c r="G13">
-        <v>0.9989659107180929</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="H13">
-        <v>1.000853125577563</v>
+        <v>1.001551127811809</v>
       </c>
       <c r="I13">
+        <v>1.001551127811809</v>
+      </c>
+      <c r="J13">
         <v>0.9996122181905323</v>
-      </c>
-      <c r="J13">
-        <v>1.001551127811809</v>
       </c>
       <c r="K13">
         <v>0.9996122181905323</v>
@@ -1408,7 +1300,7 @@
         <v>1.000034469779844</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981488269126</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="D14">
+        <v>1.003304075882351</v>
+      </c>
+      <c r="E14">
+        <v>0.9959950608903921</v>
+      </c>
+      <c r="F14">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="G14">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="H14">
         <v>1.00600739636995</v>
       </c>
-      <c r="E14">
-        <v>0.9984981488269126</v>
-      </c>
-      <c r="F14">
-        <v>0.9984981488269126</v>
-      </c>
-      <c r="G14">
-        <v>0.995995060890392</v>
-      </c>
-      <c r="H14">
-        <v>1.003304075882351</v>
-      </c>
       <c r="I14">
-        <v>0.9984981488269126</v>
+        <v>1.00600739636995</v>
       </c>
       <c r="J14">
-        <v>1.00600739636995</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="K14">
-        <v>0.9984981488269126</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="L14">
-        <v>0.9984981488269126</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="M14">
         <v>1.002252772598431</v>
@@ -1470,7 +1362,7 @@
         <v>1.000133496603905</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,25 +1373,25 @@
         <v>0.9996122365047422</v>
       </c>
       <c r="D15">
-        <v>1.001551032302387</v>
+        <v>1.000853064714728</v>
       </c>
       <c r="E15">
-        <v>0.9996122365047422</v>
+        <v>0.9989659757597195</v>
       </c>
       <c r="F15">
         <v>0.9996122365047422</v>
       </c>
       <c r="G15">
-        <v>0.9989659757597196</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="H15">
-        <v>1.000853064714728</v>
+        <v>1.001551032302386</v>
       </c>
       <c r="I15">
+        <v>1.001551032302386</v>
+      </c>
+      <c r="J15">
         <v>0.9996122365047422</v>
-      </c>
-      <c r="J15">
-        <v>1.001551032302387</v>
       </c>
       <c r="K15">
         <v>0.9996122365047422</v>
@@ -1532,7 +1424,7 @@
         <v>1.000034463715177</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000772255514</v>
+        <v>1.003632239062168</v>
       </c>
       <c r="D16">
-        <v>0.9999969237810674</v>
+        <v>0.9920090995293914</v>
       </c>
       <c r="E16">
-        <v>1.000000772255514</v>
+        <v>1.009685937797094</v>
       </c>
       <c r="F16">
-        <v>1.000000772255514</v>
+        <v>1.003632239062168</v>
       </c>
       <c r="G16">
-        <v>1.000002049487341</v>
+        <v>1.003632239062168</v>
       </c>
       <c r="H16">
-        <v>0.9999983110932236</v>
+        <v>0.9854710901891314</v>
       </c>
       <c r="I16">
-        <v>1.000000772255514</v>
+        <v>0.9854710901891314</v>
       </c>
       <c r="J16">
-        <v>0.9999969237810674</v>
+        <v>1.003632239062168</v>
       </c>
       <c r="K16">
-        <v>1.000000772255514</v>
+        <v>1.003632239062168</v>
       </c>
       <c r="L16">
-        <v>1.000000772255514</v>
+        <v>1.003632239062168</v>
       </c>
       <c r="M16">
-        <v>0.9999988480182909</v>
+        <v>0.9945516646256498</v>
       </c>
       <c r="N16">
-        <v>0.9999988480182909</v>
+        <v>0.9945516646256498</v>
       </c>
       <c r="O16">
-        <v>0.9999986690432685</v>
+        <v>0.993704142926897</v>
       </c>
       <c r="P16">
-        <v>0.9999994894306986</v>
+        <v>0.997578522771156</v>
       </c>
       <c r="Q16">
-        <v>0.9999994894306986</v>
+        <v>0.997578522771156</v>
       </c>
       <c r="R16">
-        <v>0.9999998101369025</v>
+        <v>0.9990919518439091</v>
       </c>
       <c r="S16">
-        <v>0.9999998101369025</v>
+        <v>0.9990919518439091</v>
       </c>
       <c r="T16">
-        <v>0.9999999335213623</v>
+        <v>0.9996771407836871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00001628829183</v>
+        <v>1.00297224506978</v>
       </c>
       <c r="D17">
-        <v>0.9999348586389345</v>
+        <v>0.9934610829409245</v>
       </c>
       <c r="E17">
-        <v>1.00001628829183</v>
+        <v>1.007925958660212</v>
       </c>
       <c r="F17">
-        <v>1.00001628829183</v>
+        <v>1.00297224506978</v>
       </c>
       <c r="G17">
-        <v>1.000043426511506</v>
+        <v>1.00297224506978</v>
       </c>
       <c r="H17">
-        <v>0.9999641751444293</v>
+        <v>0.9881110585233537</v>
       </c>
       <c r="I17">
-        <v>1.00001628829183</v>
+        <v>0.9881110585233537</v>
       </c>
       <c r="J17">
-        <v>0.9999348586389345</v>
+        <v>1.00297224506978</v>
       </c>
       <c r="K17">
-        <v>1.00001628829183</v>
+        <v>1.00297224506978</v>
       </c>
       <c r="L17">
-        <v>1.00001628829183</v>
+        <v>1.00297224506978</v>
       </c>
       <c r="M17">
-        <v>0.9999755734653825</v>
+        <v>0.9955416517965666</v>
       </c>
       <c r="N17">
-        <v>0.9999755734653825</v>
+        <v>0.9955416517965666</v>
       </c>
       <c r="O17">
-        <v>0.9999717740250648</v>
+        <v>0.9948481288446859</v>
       </c>
       <c r="P17">
-        <v>0.9999891450741986</v>
+        <v>0.9980185162209709</v>
       </c>
       <c r="Q17">
-        <v>0.9999891450741986</v>
+        <v>0.9980185162209709</v>
       </c>
       <c r="R17">
-        <v>0.9999959308786065</v>
+        <v>0.999256948433173</v>
       </c>
       <c r="S17">
-        <v>0.9999959308786065</v>
+        <v>0.999256948433173</v>
       </c>
       <c r="T17">
-        <v>0.9999985541950602</v>
+        <v>0.9997358058889714</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057339302667</v>
+        <v>1.001645134106832</v>
       </c>
       <c r="D18">
-        <v>0.9997706555153776</v>
+        <v>0.9963807205314246</v>
       </c>
       <c r="E18">
-        <v>1.000057339302667</v>
+        <v>1.004387006043767</v>
       </c>
       <c r="F18">
-        <v>1.000057339302667</v>
+        <v>1.001645134106832</v>
       </c>
       <c r="G18">
-        <v>1.000152893143081</v>
+        <v>1.001645134106832</v>
       </c>
       <c r="H18">
-        <v>0.9998738633793193</v>
+        <v>0.9934194859866055</v>
       </c>
       <c r="I18">
-        <v>1.000057339302667</v>
+        <v>0.9934194859866055</v>
       </c>
       <c r="J18">
-        <v>0.9997706555153776</v>
+        <v>1.001645134106832</v>
       </c>
       <c r="K18">
-        <v>1.000057339302667</v>
+        <v>1.001645134106832</v>
       </c>
       <c r="L18">
-        <v>1.000057339302667</v>
+        <v>1.001645134106832</v>
       </c>
       <c r="M18">
-        <v>0.9999139974090222</v>
+        <v>0.9975323100467188</v>
       </c>
       <c r="N18">
-        <v>0.9999139974090222</v>
+        <v>0.9975323100467188</v>
       </c>
       <c r="O18">
-        <v>0.9999006193991212</v>
+        <v>0.9971484468749541</v>
       </c>
       <c r="P18">
-        <v>0.9999617780402371</v>
+        <v>0.99890325140009</v>
       </c>
       <c r="Q18">
-        <v>0.9999617780402371</v>
+        <v>0.99890325140009</v>
       </c>
       <c r="R18">
-        <v>0.9999856683558446</v>
+        <v>0.9995887220767755</v>
       </c>
       <c r="S18">
-        <v>0.9999856683558446</v>
+        <v>0.9995887220767755</v>
       </c>
       <c r="T18">
-        <v>0.9999949049909631</v>
+        <v>0.999853769147049</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="D19">
+        <v>0.9960491379646964</v>
+      </c>
+      <c r="E19">
+        <v>1.00478892209745</v>
+      </c>
+      <c r="F19">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="G19">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="H19">
+        <v>0.9928166113674641</v>
+      </c>
+      <c r="I19">
+        <v>0.9928166113674641</v>
+      </c>
+      <c r="J19">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="K19">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="L19">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="M19">
+        <v>0.9973062322242885</v>
+      </c>
+      <c r="N19">
+        <v>0.9973062322242885</v>
+      </c>
+      <c r="O19">
+        <v>0.9968872008044244</v>
+      </c>
+      <c r="P19">
+        <v>0.9988027725098966</v>
+      </c>
+      <c r="Q19">
+        <v>0.9988027725098966</v>
+      </c>
+      <c r="R19">
+        <v>0.9995510426527007</v>
+      </c>
+      <c r="S19">
+        <v>0.9995510426527007</v>
+      </c>
+      <c r="T19">
+        <v>0.9998403717788249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="D20">
+        <v>0.9999983110932235</v>
+      </c>
+      <c r="E20">
+        <v>1.000002049487341</v>
+      </c>
+      <c r="F20">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="G20">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="H20">
+        <v>0.9999969237810674</v>
+      </c>
+      <c r="I20">
+        <v>0.9999969237810674</v>
+      </c>
+      <c r="J20">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="K20">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="L20">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="M20">
+        <v>0.9999988480182909</v>
+      </c>
+      <c r="N20">
+        <v>0.9999988480182909</v>
+      </c>
+      <c r="O20">
+        <v>0.9999986690432684</v>
+      </c>
+      <c r="P20">
+        <v>0.9999994894306986</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999994894306986</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998101369025</v>
+      </c>
+      <c r="S20">
+        <v>0.9999998101369025</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999335213626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="D21">
+        <v>0.9999641751444293</v>
+      </c>
+      <c r="E21">
+        <v>1.000043426511506</v>
+      </c>
+      <c r="F21">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="G21">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="H21">
+        <v>0.9999348586389346</v>
+      </c>
+      <c r="I21">
+        <v>0.9999348586389346</v>
+      </c>
+      <c r="J21">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="K21">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="L21">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="M21">
+        <v>0.9999755734653824</v>
+      </c>
+      <c r="N21">
+        <v>0.9999755734653824</v>
+      </c>
+      <c r="O21">
+        <v>0.9999717740250645</v>
+      </c>
+      <c r="P21">
+        <v>0.9999891450741982</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999891450741982</v>
+      </c>
+      <c r="R21">
+        <v>0.9999959308786062</v>
+      </c>
+      <c r="S21">
+        <v>0.9999959308786062</v>
+      </c>
+      <c r="T21">
+        <v>0.9999985541950599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="D22">
+        <v>0.9998738633793193</v>
+      </c>
+      <c r="E22">
+        <v>1.000152893143081</v>
+      </c>
+      <c r="F22">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="G22">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="H22">
+        <v>0.9997706555153777</v>
+      </c>
+      <c r="I22">
+        <v>0.9997706555153777</v>
+      </c>
+      <c r="J22">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="K22">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="L22">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="M22">
+        <v>0.9999139974090223</v>
+      </c>
+      <c r="N22">
+        <v>0.9999139974090223</v>
+      </c>
+      <c r="O22">
+        <v>0.9999006193991212</v>
+      </c>
+      <c r="P22">
+        <v>0.9999617780402371</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999617780402371</v>
+      </c>
+      <c r="R22">
+        <v>0.9999856683558446</v>
+      </c>
+      <c r="S22">
+        <v>0.9999856683558446</v>
+      </c>
+      <c r="T22">
+        <v>0.9999949049909631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000134327500638</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9997044988195821</v>
+      </c>
+      <c r="E23">
+        <v>1.00035819096325</v>
+      </c>
+      <c r="F23">
+        <v>1.000134327500638</v>
+      </c>
+      <c r="G23">
+        <v>1.000134327500638</v>
+      </c>
+      <c r="H23">
         <v>0.9994627150767404</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9994627150767404</v>
+      </c>
+      <c r="J23">
         <v>1.000134327500638</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.000134327500638</v>
       </c>
-      <c r="G19">
-        <v>1.00035819096325</v>
-      </c>
-      <c r="H19">
-        <v>0.9997044988195818</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
         <v>1.000134327500638</v>
       </c>
-      <c r="J19">
-        <v>0.9994627150767404</v>
-      </c>
-      <c r="K19">
-        <v>1.000134327500638</v>
-      </c>
-      <c r="L19">
-        <v>1.000134327500638</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9997985212886893</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9997985212886893</v>
       </c>
-      <c r="O19">
-        <v>0.9997671804656534</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.9997671804656535</v>
+      </c>
+      <c r="P23">
         <v>0.9999104566926723</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999104566926723</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999664243946638</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999664243946638</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999880645602478</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186224024682</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="D3">
-        <v>0.9995903179903995</v>
+        <v>0.9957134079755073</v>
       </c>
       <c r="E3">
-        <v>1.000496586154503</v>
+        <v>1.005195868436601</v>
       </c>
       <c r="F3">
-        <v>1.000186224024682</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="G3">
-        <v>1.000186224024682</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="H3">
-        <v>0.9992551186075491</v>
+        <v>0.9922061922694522</v>
       </c>
       <c r="I3">
-        <v>0.9992551186075491</v>
+        <v>0.9922061922694522</v>
       </c>
       <c r="J3">
-        <v>1.000186224024682</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="K3">
-        <v>1.000186224024682</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="L3">
-        <v>1.000186224024682</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="M3">
-        <v>0.9997206713161156</v>
+        <v>0.9970773255763712</v>
       </c>
       <c r="N3">
-        <v>0.9997206713161156</v>
+        <v>0.9970773255763712</v>
       </c>
       <c r="O3">
-        <v>0.9996772202075436</v>
+        <v>0.9966226863760833</v>
       </c>
       <c r="P3">
-        <v>0.9998758555523045</v>
+        <v>0.9987010366786775</v>
       </c>
       <c r="Q3">
-        <v>0.9998758555523045</v>
+        <v>0.9987010366786775</v>
       </c>
       <c r="R3">
-        <v>0.999953447670399</v>
+        <v>0.9995128922298306</v>
       </c>
       <c r="S3">
-        <v>0.999953447670399</v>
+        <v>0.9995128922298306</v>
       </c>
       <c r="T3">
-        <v>0.9999834491377498</v>
+        <v>0.9998268075552385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359500144599</v>
+        <v>1.001782920769654</v>
       </c>
       <c r="D4">
-        <v>0.9992091114104368</v>
+        <v>0.9960775906000757</v>
       </c>
       <c r="E4">
-        <v>1.000958653249511</v>
+        <v>1.004754435404397</v>
       </c>
       <c r="F4">
-        <v>1.000359500144599</v>
+        <v>1.001782920769654</v>
       </c>
       <c r="G4">
-        <v>1.000359500144599</v>
+        <v>1.001782920769654</v>
       </c>
       <c r="H4">
-        <v>0.9985620147739913</v>
+        <v>0.992868342321104</v>
       </c>
       <c r="I4">
-        <v>0.9985620147739913</v>
+        <v>0.992868342321104</v>
       </c>
       <c r="J4">
-        <v>1.000359500144599</v>
+        <v>1.001782920769654</v>
       </c>
       <c r="K4">
-        <v>1.000359500144599</v>
+        <v>1.001782920769654</v>
       </c>
       <c r="L4">
-        <v>1.000359500144599</v>
+        <v>1.001782920769654</v>
       </c>
       <c r="M4">
-        <v>0.999460757459295</v>
+        <v>0.9973256315453788</v>
       </c>
       <c r="N4">
-        <v>0.999460757459295</v>
+        <v>0.9973256315453788</v>
       </c>
       <c r="O4">
-        <v>0.9993768754430089</v>
+        <v>0.9969096178969444</v>
       </c>
       <c r="P4">
-        <v>0.9997603383543963</v>
+        <v>0.998811394620137</v>
       </c>
       <c r="Q4">
-        <v>0.9997603383543963</v>
+        <v>0.998811394620137</v>
       </c>
       <c r="R4">
-        <v>0.9999101288019469</v>
+        <v>0.9995542761575162</v>
       </c>
       <c r="S4">
-        <v>0.9999101288019469</v>
+        <v>0.9995542761575162</v>
       </c>
       <c r="T4">
-        <v>0.9999680466446227</v>
+        <v>0.9998415217724229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688936585136</v>
+        <v>1.002263353234501</v>
       </c>
       <c r="D5">
-        <v>0.9984843554528625</v>
+        <v>0.9950206406738578</v>
       </c>
       <c r="E5">
-        <v>1.00183714359151</v>
+        <v>1.006035581401616</v>
       </c>
       <c r="F5">
-        <v>1.000688936585136</v>
+        <v>1.002263353234501</v>
       </c>
       <c r="G5">
-        <v>1.000688936585136</v>
+        <v>1.002263353234501</v>
       </c>
       <c r="H5">
-        <v>0.997244276420573</v>
+        <v>0.9909466157142834</v>
       </c>
       <c r="I5">
-        <v>0.997244276420573</v>
+        <v>0.9909466157142834</v>
       </c>
       <c r="J5">
-        <v>1.000688936585136</v>
+        <v>1.002263353234501</v>
       </c>
       <c r="K5">
-        <v>1.000688936585136</v>
+        <v>1.002263353234501</v>
       </c>
       <c r="L5">
-        <v>1.000688936585136</v>
+        <v>1.002263353234501</v>
       </c>
       <c r="M5">
-        <v>0.9989666065028546</v>
+        <v>0.9966049844743921</v>
       </c>
       <c r="N5">
-        <v>0.9989666065028546</v>
+        <v>0.9966049844743921</v>
       </c>
       <c r="O5">
-        <v>0.9988058561528573</v>
+        <v>0.996076869874214</v>
       </c>
       <c r="P5">
-        <v>0.9995407165302819</v>
+        <v>0.9984911073944284</v>
       </c>
       <c r="Q5">
-        <v>0.9995407165302819</v>
+        <v>0.9984911073944284</v>
       </c>
       <c r="R5">
-        <v>0.9998277715439955</v>
+        <v>0.9994341688544464</v>
       </c>
       <c r="S5">
-        <v>0.9998277715439955</v>
+        <v>0.9994341688544464</v>
       </c>
       <c r="T5">
-        <v>0.9999387642033923</v>
+        <v>0.9997988162488767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010450140336</v>
+        <v>1.002557990056818</v>
       </c>
       <c r="D6">
-        <v>0.99777703348082</v>
+        <v>0.9943724472727271</v>
       </c>
       <c r="E6">
-        <v>1.002694509830448</v>
+        <v>1.006821279943182</v>
       </c>
       <c r="F6">
-        <v>1.001010450140336</v>
+        <v>1.002557990056818</v>
       </c>
       <c r="G6">
-        <v>1.001010450140336</v>
+        <v>1.002557990056818</v>
       </c>
       <c r="H6">
-        <v>0.9959582424610011</v>
+        <v>0.9897680810795464</v>
       </c>
       <c r="I6">
-        <v>0.9959582424610011</v>
+        <v>0.9897680810795464</v>
       </c>
       <c r="J6">
-        <v>1.001010450140336</v>
+        <v>1.002557990056818</v>
       </c>
       <c r="K6">
-        <v>1.001010450140336</v>
+        <v>1.002557990056818</v>
       </c>
       <c r="L6">
-        <v>1.001010450140336</v>
+        <v>1.002557990056818</v>
       </c>
       <c r="M6">
-        <v>0.9984843463006685</v>
+        <v>0.9961630355681823</v>
       </c>
       <c r="N6">
-        <v>0.9984843463006685</v>
+        <v>0.9961630355681823</v>
       </c>
       <c r="O6">
-        <v>0.998248575360719</v>
+        <v>0.9955661728030306</v>
       </c>
       <c r="P6">
-        <v>0.9993263809138909</v>
+        <v>0.9982946870643943</v>
       </c>
       <c r="Q6">
-        <v>0.9993263809138909</v>
+        <v>0.9982946870643943</v>
       </c>
       <c r="R6">
-        <v>0.9997473982205021</v>
+        <v>0.9993605128125003</v>
       </c>
       <c r="S6">
-        <v>0.9997473982205021</v>
+        <v>0.9993605128125003</v>
       </c>
       <c r="T6">
-        <v>0.9999101893655461</v>
+        <v>0.9997726297443185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00001327941879</v>
+        <v>1.001083563196941</v>
       </c>
       <c r="D7">
-        <v>0.9999707951534312</v>
+        <v>0.9976161779713996</v>
       </c>
       <c r="E7">
-        <v>1.000035402156081</v>
+        <v>1.002889470620826</v>
       </c>
       <c r="F7">
-        <v>1.00001327941879</v>
+        <v>1.001083563196941</v>
       </c>
       <c r="G7">
-        <v>1.00001327941879</v>
+        <v>1.001083563196941</v>
       </c>
       <c r="H7">
-        <v>0.999946894775967</v>
+        <v>0.99566578821435</v>
       </c>
       <c r="I7">
-        <v>0.999946894775967</v>
+        <v>0.99566578821435</v>
       </c>
       <c r="J7">
-        <v>1.00001327941879</v>
+        <v>1.001083563196941</v>
       </c>
       <c r="K7">
-        <v>1.00001327941879</v>
+        <v>1.001083563196941</v>
       </c>
       <c r="L7">
-        <v>1.00001327941879</v>
+        <v>1.001083563196941</v>
       </c>
       <c r="M7">
-        <v>0.9999800870973783</v>
+        <v>0.9983746757056458</v>
       </c>
       <c r="N7">
-        <v>0.9999800870973783</v>
+        <v>0.9983746757056458</v>
       </c>
       <c r="O7">
-        <v>0.9999769897827293</v>
+        <v>0.9981218431275637</v>
       </c>
       <c r="P7">
-        <v>0.9999911512045155</v>
+        <v>0.9992776382027443</v>
       </c>
       <c r="Q7">
-        <v>0.9999911512045155</v>
+        <v>0.9992776382027443</v>
       </c>
       <c r="R7">
-        <v>0.999996683258084</v>
+        <v>0.9997291194512936</v>
       </c>
       <c r="S7">
-        <v>0.999996683258084</v>
+        <v>0.9997291194512936</v>
       </c>
       <c r="T7">
-        <v>0.9999988217236414</v>
+        <v>0.9999036877329001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000033842072742</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="D8">
-        <v>0.9999255575191442</v>
+        <v>0.9975216594116584</v>
       </c>
       <c r="E8">
-        <v>1.000090235492312</v>
+        <v>1.003004038437672</v>
       </c>
       <c r="F8">
-        <v>1.000033842072742</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="G8">
-        <v>1.000033842072742</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="H8">
-        <v>0.9998646443478417</v>
+        <v>0.9954939362366227</v>
       </c>
       <c r="I8">
-        <v>0.9998646443478417</v>
+        <v>0.9954939362366227</v>
       </c>
       <c r="J8">
-        <v>1.000033842072742</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="K8">
-        <v>1.000033842072742</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="L8">
-        <v>1.000033842072742</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="M8">
-        <v>0.9999492432102919</v>
+        <v>0.9983102313082866</v>
       </c>
       <c r="N8">
-        <v>0.9999492432102919</v>
+        <v>0.9983102313082866</v>
       </c>
       <c r="O8">
-        <v>0.9999413479799094</v>
+        <v>0.9980473740094106</v>
       </c>
       <c r="P8">
-        <v>0.9999774428311087</v>
+        <v>0.9992489963321743</v>
       </c>
       <c r="Q8">
-        <v>0.9999774428311087</v>
+        <v>0.9992489963321743</v>
       </c>
       <c r="R8">
-        <v>0.9999915426415171</v>
+        <v>0.9997183788441184</v>
       </c>
       <c r="S8">
-        <v>0.9999915426415171</v>
+        <v>0.9997183788441184</v>
       </c>
       <c r="T8">
-        <v>0.9999969939295874</v>
+        <v>0.9998998688709673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00004738270163</v>
+        <v>1.001163194831714</v>
       </c>
       <c r="D9">
-        <v>0.999895768899964</v>
+        <v>0.9974409891668061</v>
       </c>
       <c r="E9">
-        <v>1.000126343422665</v>
+        <v>1.003101820494436</v>
       </c>
       <c r="F9">
-        <v>1.00004738270163</v>
+        <v>1.001163194831714</v>
       </c>
       <c r="G9">
-        <v>1.00004738270163</v>
+        <v>1.001163194831714</v>
       </c>
       <c r="H9">
-        <v>0.9998104827459313</v>
+        <v>0.9953472630298017</v>
       </c>
       <c r="I9">
-        <v>0.9998104827459313</v>
+        <v>0.9953472630298017</v>
       </c>
       <c r="J9">
-        <v>1.00004738270163</v>
+        <v>1.001163194831714</v>
       </c>
       <c r="K9">
-        <v>1.00004738270163</v>
+        <v>1.001163194831714</v>
       </c>
       <c r="L9">
-        <v>1.00004738270163</v>
+        <v>1.001163194831714</v>
       </c>
       <c r="M9">
-        <v>0.9999289327237807</v>
+        <v>0.9982552289307577</v>
       </c>
       <c r="N9">
-        <v>0.9999289327237807</v>
+        <v>0.9982552289307577</v>
       </c>
       <c r="O9">
-        <v>0.9999178781158418</v>
+        <v>0.9979838156761072</v>
       </c>
       <c r="P9">
-        <v>0.9999684160497305</v>
+        <v>0.999224550897743</v>
       </c>
       <c r="Q9">
-        <v>0.9999684160497305</v>
+        <v>0.999224550897743</v>
       </c>
       <c r="R9">
-        <v>0.9999881577127054</v>
+        <v>0.9997092118812356</v>
       </c>
       <c r="S9">
-        <v>0.9999881577127054</v>
+        <v>0.9997092118812356</v>
       </c>
       <c r="T9">
-        <v>0.9999957905289083</v>
+        <v>0.9998966095310307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000102163945281</v>
+        <v>1.001249863472595</v>
       </c>
       <c r="D10">
-        <v>0.9997752488185601</v>
+        <v>0.9972503192015805</v>
       </c>
       <c r="E10">
-        <v>1.000272428112773</v>
+        <v>1.003332935214253</v>
       </c>
       <c r="F10">
-        <v>1.000102163945281</v>
+        <v>1.001249863472595</v>
       </c>
       <c r="G10">
-        <v>1.000102163945281</v>
+        <v>1.001249863472595</v>
       </c>
       <c r="H10">
-        <v>0.9995913551177348</v>
+        <v>0.9950005902404989</v>
       </c>
       <c r="I10">
-        <v>0.9995913551177348</v>
+        <v>0.9950005902404989</v>
       </c>
       <c r="J10">
-        <v>1.000102163945281</v>
+        <v>1.001249863472595</v>
       </c>
       <c r="K10">
-        <v>1.000102163945281</v>
+        <v>1.001249863472595</v>
       </c>
       <c r="L10">
-        <v>1.000102163945281</v>
+        <v>1.001249863472595</v>
       </c>
       <c r="M10">
-        <v>0.9998467595315077</v>
+        <v>0.9981252268565473</v>
       </c>
       <c r="N10">
-        <v>0.9998467595315077</v>
+        <v>0.9981252268565473</v>
       </c>
       <c r="O10">
-        <v>0.9998229226271919</v>
+        <v>0.9978335909715583</v>
       </c>
       <c r="P10">
-        <v>0.9999318943360986</v>
+        <v>0.9991667723952299</v>
       </c>
       <c r="Q10">
-        <v>0.9999318943360986</v>
+        <v>0.9991667723952299</v>
       </c>
       <c r="R10">
-        <v>0.9999744617383941</v>
+        <v>0.9996875451645713</v>
       </c>
       <c r="S10">
-        <v>0.9999744617383941</v>
+        <v>0.9996875451645713</v>
       </c>
       <c r="T10">
-        <v>0.9999909206474848</v>
+        <v>0.9998889058456865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000169464490425</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="D11">
-        <v>0.9996271880439187</v>
+        <v>0.999552695402581</v>
       </c>
       <c r="E11">
-        <v>1.000451895256027</v>
+        <v>1.000542189788099</v>
       </c>
       <c r="F11">
-        <v>1.000169464490425</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="G11">
-        <v>1.000169464490425</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="H11">
-        <v>0.999322153909101</v>
+        <v>0.9991867136227516</v>
       </c>
       <c r="I11">
-        <v>0.999322153909101</v>
+        <v>0.9991867136227516</v>
       </c>
       <c r="J11">
-        <v>1.000169464490425</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="K11">
-        <v>1.000169464490425</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="L11">
-        <v>1.000169464490425</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="M11">
-        <v>0.9997458091997631</v>
+        <v>0.99969501933141</v>
       </c>
       <c r="N11">
-        <v>0.9997458091997631</v>
+        <v>0.99969501933141</v>
       </c>
       <c r="O11">
-        <v>0.9997062688144815</v>
+        <v>0.9996475780218003</v>
       </c>
       <c r="P11">
-        <v>0.9998870276299838</v>
+        <v>0.9998644545676294</v>
       </c>
       <c r="Q11">
-        <v>0.9998870276299838</v>
+        <v>0.9998644545676294</v>
       </c>
       <c r="R11">
-        <v>0.9999576368450942</v>
+        <v>0.9999491721857392</v>
       </c>
       <c r="S11">
-        <v>0.9999576368450942</v>
+        <v>0.9999491721857392</v>
       </c>
       <c r="T11">
-        <v>0.9999849384467203</v>
+        <v>0.9999819289889395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984980588624283</v>
+        <v>1.000097170434307</v>
       </c>
       <c r="D12">
-        <v>1.003304276780935</v>
+        <v>0.9997862353495547</v>
       </c>
       <c r="E12">
-        <v>0.9959948191256445</v>
+        <v>1.000259110847103</v>
       </c>
       <c r="F12">
-        <v>0.9984980588624283</v>
+        <v>1.000097170434307</v>
       </c>
       <c r="G12">
-        <v>0.9984980588624283</v>
+        <v>1.000097170434307</v>
       </c>
       <c r="H12">
-        <v>1.006007763657166</v>
+        <v>0.99961133170247</v>
       </c>
       <c r="I12">
-        <v>1.006007763657166</v>
+        <v>0.99961133170247</v>
       </c>
       <c r="J12">
-        <v>0.9984980588624283</v>
+        <v>1.000097170434307</v>
       </c>
       <c r="K12">
-        <v>0.9984980588624283</v>
+        <v>1.000097170434307</v>
       </c>
       <c r="L12">
-        <v>0.9984980588624283</v>
+        <v>1.000097170434307</v>
       </c>
       <c r="M12">
-        <v>1.002252911259797</v>
+        <v>0.9998542510683885</v>
       </c>
       <c r="N12">
-        <v>1.002252911259797</v>
+        <v>0.9998542510683885</v>
       </c>
       <c r="O12">
-        <v>1.00260336643351</v>
+        <v>0.9998315791621106</v>
       </c>
       <c r="P12">
-        <v>1.001001293794008</v>
+        <v>0.9999352241903615</v>
       </c>
       <c r="Q12">
-        <v>1.001001293794008</v>
+        <v>0.9999352241903615</v>
       </c>
       <c r="R12">
-        <v>1.000375485061113</v>
+        <v>0.9999757107513478</v>
       </c>
       <c r="S12">
-        <v>1.000375485061113</v>
+        <v>0.9999757107513478</v>
       </c>
       <c r="T12">
-        <v>1.000133506025172</v>
+        <v>0.9999913648670082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996122181905323</v>
+        <v>1.000327364815893</v>
       </c>
       <c r="D13">
-        <v>1.000853125577563</v>
+        <v>0.9992798070203861</v>
       </c>
       <c r="E13">
-        <v>0.9989659107180929</v>
+        <v>1.000872959192912</v>
       </c>
       <c r="F13">
-        <v>0.9996122181905323</v>
+        <v>1.000327364815893</v>
       </c>
       <c r="G13">
-        <v>0.9996122181905323</v>
+        <v>1.000327364815893</v>
       </c>
       <c r="H13">
-        <v>1.001551127811809</v>
+        <v>0.9986905568004801</v>
       </c>
       <c r="I13">
-        <v>1.001551127811809</v>
+        <v>0.9986905568004801</v>
       </c>
       <c r="J13">
-        <v>0.9996122181905323</v>
+        <v>1.000327364815893</v>
       </c>
       <c r="K13">
-        <v>0.9996122181905323</v>
+        <v>1.000327364815893</v>
       </c>
       <c r="L13">
-        <v>0.9996122181905323</v>
+        <v>1.000327364815893</v>
       </c>
       <c r="M13">
-        <v>1.00058167300117</v>
+        <v>0.9995089608081866</v>
       </c>
       <c r="N13">
-        <v>1.00058167300117</v>
+        <v>0.9995089608081866</v>
       </c>
       <c r="O13">
-        <v>1.000672157193301</v>
+        <v>0.9994325762122531</v>
       </c>
       <c r="P13">
-        <v>1.000258521397624</v>
+        <v>0.9997817621440888</v>
       </c>
       <c r="Q13">
-        <v>1.000258521397624</v>
+        <v>0.9997817621440888</v>
       </c>
       <c r="R13">
-        <v>1.000096945595851</v>
+        <v>0.9999181628120399</v>
       </c>
       <c r="S13">
-        <v>1.000096945595851</v>
+        <v>0.9999181628120399</v>
       </c>
       <c r="T13">
-        <v>1.000034469779844</v>
+        <v>0.9999709029102429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981488269123</v>
+        <v>1.000519256222528</v>
       </c>
       <c r="D14">
-        <v>1.003304075882351</v>
+        <v>0.9988576601547873</v>
       </c>
       <c r="E14">
-        <v>0.9959950608903921</v>
+        <v>1.001384659834005</v>
       </c>
       <c r="F14">
-        <v>0.9984981488269123</v>
+        <v>1.000519256222528</v>
       </c>
       <c r="G14">
-        <v>0.9984981488269123</v>
+        <v>1.000519256222528</v>
       </c>
       <c r="H14">
-        <v>1.00600739636995</v>
+        <v>0.9979230169397295</v>
       </c>
       <c r="I14">
-        <v>1.00600739636995</v>
+        <v>0.9979230169397295</v>
       </c>
       <c r="J14">
-        <v>0.9984981488269123</v>
+        <v>1.000519256222528</v>
       </c>
       <c r="K14">
-        <v>0.9984981488269123</v>
+        <v>1.000519256222528</v>
       </c>
       <c r="L14">
-        <v>0.9984981488269123</v>
+        <v>1.000519256222528</v>
       </c>
       <c r="M14">
-        <v>1.002252772598431</v>
+        <v>0.9992211365811285</v>
       </c>
       <c r="N14">
-        <v>1.002252772598431</v>
+        <v>0.9992211365811285</v>
       </c>
       <c r="O14">
-        <v>1.002603207026404</v>
+        <v>0.9990999777723482</v>
       </c>
       <c r="P14">
-        <v>1.001001231341258</v>
+        <v>0.9996538431282614</v>
       </c>
       <c r="Q14">
-        <v>1.001001231341258</v>
+        <v>0.9996538431282614</v>
       </c>
       <c r="R14">
-        <v>1.000375460712672</v>
+        <v>0.9998701964018279</v>
       </c>
       <c r="S14">
-        <v>1.000375460712672</v>
+        <v>0.9998701964018279</v>
       </c>
       <c r="T14">
-        <v>1.000133496603905</v>
+        <v>0.9999538509326841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996122365047422</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="D15">
-        <v>1.000853064714728</v>
+        <v>0.9995903179903995</v>
       </c>
       <c r="E15">
-        <v>0.9989659757597195</v>
+        <v>1.000496586154503</v>
       </c>
       <c r="F15">
-        <v>0.9996122365047422</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="G15">
-        <v>0.9996122365047422</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="H15">
-        <v>1.001551032302386</v>
+        <v>0.9992551186075491</v>
       </c>
       <c r="I15">
-        <v>1.001551032302386</v>
+        <v>0.9992551186075491</v>
       </c>
       <c r="J15">
-        <v>0.9996122365047422</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="K15">
-        <v>0.9996122365047422</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="L15">
-        <v>0.9996122365047422</v>
+        <v>1.000186224024682</v>
       </c>
       <c r="M15">
-        <v>1.000581634403564</v>
+        <v>0.9997206713161156</v>
       </c>
       <c r="N15">
-        <v>1.000581634403564</v>
+        <v>0.9997206713161156</v>
       </c>
       <c r="O15">
-        <v>1.000672111173952</v>
+        <v>0.9996772202075436</v>
       </c>
       <c r="P15">
-        <v>1.000258501770624</v>
+        <v>0.9998758555523045</v>
       </c>
       <c r="Q15">
-        <v>1.000258501770624</v>
+        <v>0.9998758555523045</v>
       </c>
       <c r="R15">
-        <v>1.000096935454153</v>
+        <v>0.999953447670399</v>
       </c>
       <c r="S15">
-        <v>1.000096935454153</v>
+        <v>0.999953447670399</v>
       </c>
       <c r="T15">
-        <v>1.000034463715177</v>
+        <v>0.9999834491377498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003632239062168</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="D16">
-        <v>0.9920090995293914</v>
+        <v>0.9992091114104368</v>
       </c>
       <c r="E16">
-        <v>1.009685937797094</v>
+        <v>1.000958653249511</v>
       </c>
       <c r="F16">
-        <v>1.003632239062168</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="G16">
-        <v>1.003632239062168</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="H16">
-        <v>0.9854710901891314</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="I16">
-        <v>0.9854710901891314</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="J16">
-        <v>1.003632239062168</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="K16">
-        <v>1.003632239062168</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="L16">
-        <v>1.003632239062168</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="M16">
-        <v>0.9945516646256498</v>
+        <v>0.999460757459295</v>
       </c>
       <c r="N16">
-        <v>0.9945516646256498</v>
+        <v>0.999460757459295</v>
       </c>
       <c r="O16">
-        <v>0.993704142926897</v>
+        <v>0.9993768754430089</v>
       </c>
       <c r="P16">
-        <v>0.997578522771156</v>
+        <v>0.9997603383543963</v>
       </c>
       <c r="Q16">
-        <v>0.997578522771156</v>
+        <v>0.9997603383543963</v>
       </c>
       <c r="R16">
-        <v>0.9990919518439091</v>
+        <v>0.9999101288019469</v>
       </c>
       <c r="S16">
-        <v>0.9990919518439091</v>
+        <v>0.9999101288019469</v>
       </c>
       <c r="T16">
-        <v>0.9996771407836871</v>
+        <v>0.9999680466446227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00297224506978</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="D17">
-        <v>0.9934610829409245</v>
+        <v>0.9984843554528625</v>
       </c>
       <c r="E17">
-        <v>1.007925958660212</v>
+        <v>1.00183714359151</v>
       </c>
       <c r="F17">
-        <v>1.00297224506978</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="G17">
-        <v>1.00297224506978</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="H17">
-        <v>0.9881110585233537</v>
+        <v>0.997244276420573</v>
       </c>
       <c r="I17">
-        <v>0.9881110585233537</v>
+        <v>0.997244276420573</v>
       </c>
       <c r="J17">
-        <v>1.00297224506978</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="K17">
-        <v>1.00297224506978</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="L17">
-        <v>1.00297224506978</v>
+        <v>1.000688936585136</v>
       </c>
       <c r="M17">
-        <v>0.9955416517965666</v>
+        <v>0.9989666065028546</v>
       </c>
       <c r="N17">
-        <v>0.9955416517965666</v>
+        <v>0.9989666065028546</v>
       </c>
       <c r="O17">
-        <v>0.9948481288446859</v>
+        <v>0.9988058561528573</v>
       </c>
       <c r="P17">
-        <v>0.9980185162209709</v>
+        <v>0.9995407165302819</v>
       </c>
       <c r="Q17">
-        <v>0.9980185162209709</v>
+        <v>0.9995407165302819</v>
       </c>
       <c r="R17">
-        <v>0.999256948433173</v>
+        <v>0.9998277715439955</v>
       </c>
       <c r="S17">
-        <v>0.999256948433173</v>
+        <v>0.9998277715439955</v>
       </c>
       <c r="T17">
-        <v>0.9997358058889714</v>
+        <v>0.9999387642033923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001645134106832</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="D18">
-        <v>0.9963807205314246</v>
+        <v>0.99777703348082</v>
       </c>
       <c r="E18">
-        <v>1.004387006043767</v>
+        <v>1.002694509830448</v>
       </c>
       <c r="F18">
-        <v>1.001645134106832</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="G18">
-        <v>1.001645134106832</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="H18">
-        <v>0.9934194859866055</v>
+        <v>0.9959582424610011</v>
       </c>
       <c r="I18">
-        <v>0.9934194859866055</v>
+        <v>0.9959582424610011</v>
       </c>
       <c r="J18">
-        <v>1.001645134106832</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="K18">
-        <v>1.001645134106832</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="L18">
-        <v>1.001645134106832</v>
+        <v>1.001010450140336</v>
       </c>
       <c r="M18">
-        <v>0.9975323100467188</v>
+        <v>0.9984843463006685</v>
       </c>
       <c r="N18">
-        <v>0.9975323100467188</v>
+        <v>0.9984843463006685</v>
       </c>
       <c r="O18">
-        <v>0.9971484468749541</v>
+        <v>0.998248575360719</v>
       </c>
       <c r="P18">
-        <v>0.99890325140009</v>
+        <v>0.9993263809138909</v>
       </c>
       <c r="Q18">
-        <v>0.99890325140009</v>
+        <v>0.9993263809138909</v>
       </c>
       <c r="R18">
-        <v>0.9995887220767755</v>
+        <v>0.9997473982205021</v>
       </c>
       <c r="S18">
-        <v>0.9995887220767755</v>
+        <v>0.9997473982205021</v>
       </c>
       <c r="T18">
-        <v>0.999853769147049</v>
+        <v>0.9999101893655461</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001795853081113</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="D19">
-        <v>0.9960491379646964</v>
+        <v>0.9999707951534312</v>
       </c>
       <c r="E19">
-        <v>1.00478892209745</v>
+        <v>1.000035402156081</v>
       </c>
       <c r="F19">
-        <v>1.001795853081113</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="G19">
-        <v>1.001795853081113</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="H19">
-        <v>0.9928166113674641</v>
+        <v>0.999946894775967</v>
       </c>
       <c r="I19">
-        <v>0.9928166113674641</v>
+        <v>0.999946894775967</v>
       </c>
       <c r="J19">
-        <v>1.001795853081113</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="K19">
-        <v>1.001795853081113</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="L19">
-        <v>1.001795853081113</v>
+        <v>1.00001327941879</v>
       </c>
       <c r="M19">
-        <v>0.9973062322242885</v>
+        <v>0.9999800870973783</v>
       </c>
       <c r="N19">
-        <v>0.9973062322242885</v>
+        <v>0.9999800870973783</v>
       </c>
       <c r="O19">
-        <v>0.9968872008044244</v>
+        <v>0.9999769897827293</v>
       </c>
       <c r="P19">
-        <v>0.9988027725098966</v>
+        <v>0.9999911512045155</v>
       </c>
       <c r="Q19">
-        <v>0.9988027725098966</v>
+        <v>0.9999911512045155</v>
       </c>
       <c r="R19">
-        <v>0.9995510426527007</v>
+        <v>0.999996683258084</v>
       </c>
       <c r="S19">
-        <v>0.9995510426527007</v>
+        <v>0.999996683258084</v>
       </c>
       <c r="T19">
-        <v>0.9998403717788249</v>
+        <v>0.9999988217236414</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000772255514</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="D20">
-        <v>0.9999983110932235</v>
+        <v>0.9999255575191442</v>
       </c>
       <c r="E20">
-        <v>1.000002049487341</v>
+        <v>1.000090235492312</v>
       </c>
       <c r="F20">
-        <v>1.000000772255514</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="G20">
-        <v>1.000000772255514</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="H20">
-        <v>0.9999969237810674</v>
+        <v>0.9998646443478417</v>
       </c>
       <c r="I20">
-        <v>0.9999969237810674</v>
+        <v>0.9998646443478417</v>
       </c>
       <c r="J20">
-        <v>1.000000772255514</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="K20">
-        <v>1.000000772255514</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="L20">
-        <v>1.000000772255514</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="M20">
-        <v>0.9999988480182909</v>
+        <v>0.9999492432102919</v>
       </c>
       <c r="N20">
-        <v>0.9999988480182909</v>
+        <v>0.9999492432102919</v>
       </c>
       <c r="O20">
-        <v>0.9999986690432684</v>
+        <v>0.9999413479799094</v>
       </c>
       <c r="P20">
-        <v>0.9999994894306986</v>
+        <v>0.9999774428311087</v>
       </c>
       <c r="Q20">
-        <v>0.9999994894306986</v>
+        <v>0.9999774428311087</v>
       </c>
       <c r="R20">
-        <v>0.9999998101369025</v>
+        <v>0.9999915426415171</v>
       </c>
       <c r="S20">
-        <v>0.9999998101369025</v>
+        <v>0.9999915426415171</v>
       </c>
       <c r="T20">
-        <v>0.9999999335213626</v>
+        <v>0.9999969939295874</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00001628829183</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="D21">
-        <v>0.9999641751444293</v>
+        <v>0.999895768899964</v>
       </c>
       <c r="E21">
-        <v>1.000043426511506</v>
+        <v>1.000126343422665</v>
       </c>
       <c r="F21">
-        <v>1.00001628829183</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="G21">
-        <v>1.00001628829183</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="H21">
-        <v>0.9999348586389346</v>
+        <v>0.9998104827459313</v>
       </c>
       <c r="I21">
-        <v>0.9999348586389346</v>
+        <v>0.9998104827459313</v>
       </c>
       <c r="J21">
-        <v>1.00001628829183</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="K21">
-        <v>1.00001628829183</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="L21">
-        <v>1.00001628829183</v>
+        <v>1.00004738270163</v>
       </c>
       <c r="M21">
-        <v>0.9999755734653824</v>
+        <v>0.9999289327237807</v>
       </c>
       <c r="N21">
-        <v>0.9999755734653824</v>
+        <v>0.9999289327237807</v>
       </c>
       <c r="O21">
-        <v>0.9999717740250645</v>
+        <v>0.9999178781158418</v>
       </c>
       <c r="P21">
-        <v>0.9999891450741982</v>
+        <v>0.9999684160497305</v>
       </c>
       <c r="Q21">
-        <v>0.9999891450741982</v>
+        <v>0.9999684160497305</v>
       </c>
       <c r="R21">
-        <v>0.9999959308786062</v>
+        <v>0.9999881577127054</v>
       </c>
       <c r="S21">
-        <v>0.9999959308786062</v>
+        <v>0.9999881577127054</v>
       </c>
       <c r="T21">
-        <v>0.9999985541950599</v>
+        <v>0.9999957905289083</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000057339302667</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="D22">
-        <v>0.9998738633793193</v>
+        <v>0.9997752488185601</v>
       </c>
       <c r="E22">
-        <v>1.000152893143081</v>
+        <v>1.000272428112773</v>
       </c>
       <c r="F22">
-        <v>1.000057339302667</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="G22">
-        <v>1.000057339302667</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="H22">
-        <v>0.9997706555153777</v>
+        <v>0.9995913551177348</v>
       </c>
       <c r="I22">
-        <v>0.9997706555153777</v>
+        <v>0.9995913551177348</v>
       </c>
       <c r="J22">
-        <v>1.000057339302667</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="K22">
-        <v>1.000057339302667</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="L22">
-        <v>1.000057339302667</v>
+        <v>1.000102163945281</v>
       </c>
       <c r="M22">
-        <v>0.9999139974090223</v>
+        <v>0.9998467595315077</v>
       </c>
       <c r="N22">
-        <v>0.9999139974090223</v>
+        <v>0.9998467595315077</v>
       </c>
       <c r="O22">
-        <v>0.9999006193991212</v>
+        <v>0.9998229226271919</v>
       </c>
       <c r="P22">
-        <v>0.9999617780402371</v>
+        <v>0.9999318943360986</v>
       </c>
       <c r="Q22">
-        <v>0.9999617780402371</v>
+        <v>0.9999318943360986</v>
       </c>
       <c r="R22">
-        <v>0.9999856683558446</v>
+        <v>0.9999744617383941</v>
       </c>
       <c r="S22">
-        <v>0.9999856683558446</v>
+        <v>0.9999744617383941</v>
       </c>
       <c r="T22">
-        <v>0.9999949049909631</v>
+        <v>0.9999909206474848</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000169464490425</v>
+      </c>
+      <c r="D23">
+        <v>0.9996271880439187</v>
+      </c>
+      <c r="E23">
+        <v>1.000451895256027</v>
+      </c>
+      <c r="F23">
+        <v>1.000169464490425</v>
+      </c>
+      <c r="G23">
+        <v>1.000169464490425</v>
+      </c>
+      <c r="H23">
+        <v>0.999322153909101</v>
+      </c>
+      <c r="I23">
+        <v>0.999322153909101</v>
+      </c>
+      <c r="J23">
+        <v>1.000169464490425</v>
+      </c>
+      <c r="K23">
+        <v>1.000169464490425</v>
+      </c>
+      <c r="L23">
+        <v>1.000169464490425</v>
+      </c>
+      <c r="M23">
+        <v>0.9997458091997631</v>
+      </c>
+      <c r="N23">
+        <v>0.9997458091997631</v>
+      </c>
+      <c r="O23">
+        <v>0.9997062688144815</v>
+      </c>
+      <c r="P23">
+        <v>0.9998870276299838</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998870276299838</v>
+      </c>
+      <c r="R23">
+        <v>0.9999576368450942</v>
+      </c>
+      <c r="S23">
+        <v>0.9999576368450942</v>
+      </c>
+      <c r="T23">
+        <v>0.9999849384467203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="D24">
+        <v>1.003304276780935</v>
+      </c>
+      <c r="E24">
+        <v>0.9959948191256445</v>
+      </c>
+      <c r="F24">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="G24">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="H24">
+        <v>1.006007763657166</v>
+      </c>
+      <c r="I24">
+        <v>1.006007763657166</v>
+      </c>
+      <c r="J24">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="K24">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="L24">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="M24">
+        <v>1.002252911259797</v>
+      </c>
+      <c r="N24">
+        <v>1.002252911259797</v>
+      </c>
+      <c r="O24">
+        <v>1.00260336643351</v>
+      </c>
+      <c r="P24">
+        <v>1.001001293794008</v>
+      </c>
+      <c r="Q24">
+        <v>1.001001293794008</v>
+      </c>
+      <c r="R24">
+        <v>1.000375485061113</v>
+      </c>
+      <c r="S24">
+        <v>1.000375485061113</v>
+      </c>
+      <c r="T24">
+        <v>1.000133506025172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="D25">
+        <v>1.000853125577563</v>
+      </c>
+      <c r="E25">
+        <v>0.9989659107180929</v>
+      </c>
+      <c r="F25">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="G25">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="H25">
+        <v>1.001551127811809</v>
+      </c>
+      <c r="I25">
+        <v>1.001551127811809</v>
+      </c>
+      <c r="J25">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="K25">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="L25">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="M25">
+        <v>1.00058167300117</v>
+      </c>
+      <c r="N25">
+        <v>1.00058167300117</v>
+      </c>
+      <c r="O25">
+        <v>1.000672157193301</v>
+      </c>
+      <c r="P25">
+        <v>1.000258521397624</v>
+      </c>
+      <c r="Q25">
+        <v>1.000258521397624</v>
+      </c>
+      <c r="R25">
+        <v>1.000096945595851</v>
+      </c>
+      <c r="S25">
+        <v>1.000096945595851</v>
+      </c>
+      <c r="T25">
+        <v>1.000034469779844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="D26">
+        <v>1.003304075882351</v>
+      </c>
+      <c r="E26">
+        <v>0.9959950608903921</v>
+      </c>
+      <c r="F26">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="G26">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="H26">
+        <v>1.00600739636995</v>
+      </c>
+      <c r="I26">
+        <v>1.00600739636995</v>
+      </c>
+      <c r="J26">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="K26">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="L26">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="M26">
+        <v>1.002252772598431</v>
+      </c>
+      <c r="N26">
+        <v>1.002252772598431</v>
+      </c>
+      <c r="O26">
+        <v>1.002603207026404</v>
+      </c>
+      <c r="P26">
+        <v>1.001001231341258</v>
+      </c>
+      <c r="Q26">
+        <v>1.001001231341258</v>
+      </c>
+      <c r="R26">
+        <v>1.000375460712672</v>
+      </c>
+      <c r="S26">
+        <v>1.000375460712672</v>
+      </c>
+      <c r="T26">
+        <v>1.000133496603905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="D27">
+        <v>1.000853064714728</v>
+      </c>
+      <c r="E27">
+        <v>0.9989659757597195</v>
+      </c>
+      <c r="F27">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="G27">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="H27">
+        <v>1.001551032302386</v>
+      </c>
+      <c r="I27">
+        <v>1.001551032302386</v>
+      </c>
+      <c r="J27">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="K27">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="L27">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="M27">
+        <v>1.000581634403564</v>
+      </c>
+      <c r="N27">
+        <v>1.000581634403564</v>
+      </c>
+      <c r="O27">
+        <v>1.000672111173952</v>
+      </c>
+      <c r="P27">
+        <v>1.000258501770624</v>
+      </c>
+      <c r="Q27">
+        <v>1.000258501770624</v>
+      </c>
+      <c r="R27">
+        <v>1.000096935454153</v>
+      </c>
+      <c r="S27">
+        <v>1.000096935454153</v>
+      </c>
+      <c r="T27">
+        <v>1.000034463715177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003632239062168</v>
+      </c>
+      <c r="D28">
+        <v>0.9920090995293914</v>
+      </c>
+      <c r="E28">
+        <v>1.009685937797094</v>
+      </c>
+      <c r="F28">
+        <v>1.003632239062168</v>
+      </c>
+      <c r="G28">
+        <v>1.003632239062168</v>
+      </c>
+      <c r="H28">
+        <v>0.9854710901891314</v>
+      </c>
+      <c r="I28">
+        <v>0.9854710901891314</v>
+      </c>
+      <c r="J28">
+        <v>1.003632239062168</v>
+      </c>
+      <c r="K28">
+        <v>1.003632239062168</v>
+      </c>
+      <c r="L28">
+        <v>1.003632239062168</v>
+      </c>
+      <c r="M28">
+        <v>0.9945516646256498</v>
+      </c>
+      <c r="N28">
+        <v>0.9945516646256498</v>
+      </c>
+      <c r="O28">
+        <v>0.993704142926897</v>
+      </c>
+      <c r="P28">
+        <v>0.997578522771156</v>
+      </c>
+      <c r="Q28">
+        <v>0.997578522771156</v>
+      </c>
+      <c r="R28">
+        <v>0.9990919518439091</v>
+      </c>
+      <c r="S28">
+        <v>0.9990919518439091</v>
+      </c>
+      <c r="T28">
+        <v>0.9996771407836871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.00297224506978</v>
+      </c>
+      <c r="D29">
+        <v>0.9934610829409245</v>
+      </c>
+      <c r="E29">
+        <v>1.007925958660212</v>
+      </c>
+      <c r="F29">
+        <v>1.00297224506978</v>
+      </c>
+      <c r="G29">
+        <v>1.00297224506978</v>
+      </c>
+      <c r="H29">
+        <v>0.9881110585233537</v>
+      </c>
+      <c r="I29">
+        <v>0.9881110585233537</v>
+      </c>
+      <c r="J29">
+        <v>1.00297224506978</v>
+      </c>
+      <c r="K29">
+        <v>1.00297224506978</v>
+      </c>
+      <c r="L29">
+        <v>1.00297224506978</v>
+      </c>
+      <c r="M29">
+        <v>0.9955416517965666</v>
+      </c>
+      <c r="N29">
+        <v>0.9955416517965666</v>
+      </c>
+      <c r="O29">
+        <v>0.9948481288446859</v>
+      </c>
+      <c r="P29">
+        <v>0.9980185162209709</v>
+      </c>
+      <c r="Q29">
+        <v>0.9980185162209709</v>
+      </c>
+      <c r="R29">
+        <v>0.999256948433173</v>
+      </c>
+      <c r="S29">
+        <v>0.999256948433173</v>
+      </c>
+      <c r="T29">
+        <v>0.9997358058889714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001645134106832</v>
+      </c>
+      <c r="D30">
+        <v>0.9963807205314246</v>
+      </c>
+      <c r="E30">
+        <v>1.004387006043767</v>
+      </c>
+      <c r="F30">
+        <v>1.001645134106832</v>
+      </c>
+      <c r="G30">
+        <v>1.001645134106832</v>
+      </c>
+      <c r="H30">
+        <v>0.9934194859866055</v>
+      </c>
+      <c r="I30">
+        <v>0.9934194859866055</v>
+      </c>
+      <c r="J30">
+        <v>1.001645134106832</v>
+      </c>
+      <c r="K30">
+        <v>1.001645134106832</v>
+      </c>
+      <c r="L30">
+        <v>1.001645134106832</v>
+      </c>
+      <c r="M30">
+        <v>0.9975323100467188</v>
+      </c>
+      <c r="N30">
+        <v>0.9975323100467188</v>
+      </c>
+      <c r="O30">
+        <v>0.9971484468749541</v>
+      </c>
+      <c r="P30">
+        <v>0.99890325140009</v>
+      </c>
+      <c r="Q30">
+        <v>0.99890325140009</v>
+      </c>
+      <c r="R30">
+        <v>0.9995887220767755</v>
+      </c>
+      <c r="S30">
+        <v>0.9995887220767755</v>
+      </c>
+      <c r="T30">
+        <v>0.999853769147049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="D31">
+        <v>0.9960491379646964</v>
+      </c>
+      <c r="E31">
+        <v>1.00478892209745</v>
+      </c>
+      <c r="F31">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="G31">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="H31">
+        <v>0.9928166113674641</v>
+      </c>
+      <c r="I31">
+        <v>0.9928166113674641</v>
+      </c>
+      <c r="J31">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="K31">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="L31">
+        <v>1.001795853081113</v>
+      </c>
+      <c r="M31">
+        <v>0.9973062322242885</v>
+      </c>
+      <c r="N31">
+        <v>0.9973062322242885</v>
+      </c>
+      <c r="O31">
+        <v>0.9968872008044244</v>
+      </c>
+      <c r="P31">
+        <v>0.9988027725098966</v>
+      </c>
+      <c r="Q31">
+        <v>0.9988027725098966</v>
+      </c>
+      <c r="R31">
+        <v>0.9995510426527007</v>
+      </c>
+      <c r="S31">
+        <v>0.9995510426527007</v>
+      </c>
+      <c r="T31">
+        <v>0.9998403717788249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004297912328768</v>
+      </c>
+      <c r="D32">
+        <v>0.9905446223287678</v>
+      </c>
+      <c r="E32">
+        <v>1.011461060273973</v>
+      </c>
+      <c r="F32">
+        <v>1.004297912328768</v>
+      </c>
+      <c r="G32">
+        <v>1.004297912328768</v>
+      </c>
+      <c r="H32">
+        <v>0.982808405890411</v>
+      </c>
+      <c r="I32">
+        <v>0.982808405890411</v>
+      </c>
+      <c r="J32">
+        <v>1.004297912328768</v>
+      </c>
+      <c r="K32">
+        <v>1.004297912328768</v>
+      </c>
+      <c r="L32">
+        <v>1.004297912328768</v>
+      </c>
+      <c r="M32">
+        <v>0.9935531591095893</v>
+      </c>
+      <c r="N32">
+        <v>0.9935531591095893</v>
+      </c>
+      <c r="O32">
+        <v>0.9925503135159821</v>
+      </c>
+      <c r="P32">
+        <v>0.9971347435159821</v>
+      </c>
+      <c r="Q32">
+        <v>0.9971347435159821</v>
+      </c>
+      <c r="R32">
+        <v>0.9989255357191784</v>
+      </c>
+      <c r="S32">
+        <v>0.9989255357191784</v>
+      </c>
+      <c r="T32">
+        <v>0.9996179709132424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001941622105263</v>
+      </c>
+      <c r="D33">
+        <v>0.9957284505263159</v>
+      </c>
+      <c r="E33">
+        <v>1.005177635789474</v>
+      </c>
+      <c r="F33">
+        <v>1.001941622105263</v>
+      </c>
+      <c r="G33">
+        <v>1.001941622105263</v>
+      </c>
+      <c r="H33">
+        <v>0.9922335389473684</v>
+      </c>
+      <c r="I33">
+        <v>0.9922335389473684</v>
+      </c>
+      <c r="J33">
+        <v>1.001941622105263</v>
+      </c>
+      <c r="K33">
+        <v>1.001941622105263</v>
+      </c>
+      <c r="L33">
+        <v>1.001941622105263</v>
+      </c>
+      <c r="M33">
+        <v>0.9970875805263157</v>
+      </c>
+      <c r="N33">
+        <v>0.9970875805263157</v>
+      </c>
+      <c r="O33">
+        <v>0.9966345371929825</v>
+      </c>
+      <c r="P33">
+        <v>0.998705594385965</v>
+      </c>
+      <c r="Q33">
+        <v>0.998705594385965</v>
+      </c>
+      <c r="R33">
+        <v>0.9995146013157894</v>
+      </c>
+      <c r="S33">
+        <v>0.9995146013157894</v>
+      </c>
+      <c r="T33">
+        <v>0.9998274152631579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="D34">
+        <v>0.9957285957894738</v>
+      </c>
+      <c r="E34">
+        <v>1.005177446842105</v>
+      </c>
+      <c r="F34">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="G34">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="H34">
+        <v>0.9922338194736843</v>
+      </c>
+      <c r="I34">
+        <v>0.9922338194736843</v>
+      </c>
+      <c r="J34">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="K34">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="L34">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="M34">
+        <v>0.9970876889473683</v>
+      </c>
+      <c r="N34">
+        <v>0.9970876889473683</v>
+      </c>
+      <c r="O34">
+        <v>0.9966346578947368</v>
+      </c>
+      <c r="P34">
+        <v>0.9987056454385964</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987056454385964</v>
+      </c>
+      <c r="R34">
+        <v>0.9995146236842104</v>
+      </c>
+      <c r="S34">
+        <v>0.9995146236842104</v>
+      </c>
+      <c r="T34">
+        <v>0.9998274228947368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.00653640918363</v>
+      </c>
+      <c r="D35">
+        <v>0.9856199523716933</v>
+      </c>
+      <c r="E35">
+        <v>1.017430348426431</v>
+      </c>
+      <c r="F35">
+        <v>1.00653640918363</v>
+      </c>
+      <c r="G35">
+        <v>1.00653640918363</v>
+      </c>
+      <c r="H35">
+        <v>0.9738544549917697</v>
+      </c>
+      <c r="I35">
+        <v>0.9738544549917697</v>
+      </c>
+      <c r="J35">
+        <v>1.00653640918363</v>
+      </c>
+      <c r="K35">
+        <v>1.00653640918363</v>
+      </c>
+      <c r="L35">
+        <v>1.00653640918363</v>
+      </c>
+      <c r="M35">
+        <v>0.9901954320877</v>
+      </c>
+      <c r="N35">
+        <v>0.9901954320877</v>
+      </c>
+      <c r="O35">
+        <v>0.9886702721823645</v>
+      </c>
+      <c r="P35">
+        <v>0.9956424244530101</v>
+      </c>
+      <c r="Q35">
+        <v>0.9956424244530101</v>
+      </c>
+      <c r="R35">
+        <v>0.9983659206356651</v>
+      </c>
+      <c r="S35">
+        <v>0.9983659206356651</v>
+      </c>
+      <c r="T35">
+        <v>0.9994189972234642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="D36">
+        <v>0.9999983110932235</v>
+      </c>
+      <c r="E36">
+        <v>1.000002049487341</v>
+      </c>
+      <c r="F36">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="G36">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="H36">
+        <v>0.9999969237810674</v>
+      </c>
+      <c r="I36">
+        <v>0.9999969237810674</v>
+      </c>
+      <c r="J36">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="K36">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="L36">
+        <v>1.000000772255514</v>
+      </c>
+      <c r="M36">
+        <v>0.9999988480182909</v>
+      </c>
+      <c r="N36">
+        <v>0.9999988480182909</v>
+      </c>
+      <c r="O36">
+        <v>0.9999986690432684</v>
+      </c>
+      <c r="P36">
+        <v>0.9999994894306986</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999994894306986</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998101369025</v>
+      </c>
+      <c r="S36">
+        <v>0.9999998101369025</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999335213626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="D37">
+        <v>0.9999641751444293</v>
+      </c>
+      <c r="E37">
+        <v>1.000043426511506</v>
+      </c>
+      <c r="F37">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="G37">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="H37">
+        <v>0.9999348586389346</v>
+      </c>
+      <c r="I37">
+        <v>0.9999348586389346</v>
+      </c>
+      <c r="J37">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="K37">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="L37">
+        <v>1.00001628829183</v>
+      </c>
+      <c r="M37">
+        <v>0.9999755734653824</v>
+      </c>
+      <c r="N37">
+        <v>0.9999755734653824</v>
+      </c>
+      <c r="O37">
+        <v>0.9999717740250645</v>
+      </c>
+      <c r="P37">
+        <v>0.9999891450741982</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999891450741982</v>
+      </c>
+      <c r="R37">
+        <v>0.9999959308786062</v>
+      </c>
+      <c r="S37">
+        <v>0.9999959308786062</v>
+      </c>
+      <c r="T37">
+        <v>0.9999985541950599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="D38">
+        <v>0.9998738633793193</v>
+      </c>
+      <c r="E38">
+        <v>1.000152893143081</v>
+      </c>
+      <c r="F38">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="G38">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="H38">
+        <v>0.9997706555153777</v>
+      </c>
+      <c r="I38">
+        <v>0.9997706555153777</v>
+      </c>
+      <c r="J38">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="K38">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="L38">
+        <v>1.000057339302667</v>
+      </c>
+      <c r="M38">
+        <v>0.9999139974090223</v>
+      </c>
+      <c r="N38">
+        <v>0.9999139974090223</v>
+      </c>
+      <c r="O38">
+        <v>0.9999006193991212</v>
+      </c>
+      <c r="P38">
+        <v>0.9999617780402371</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999617780402371</v>
+      </c>
+      <c r="R38">
+        <v>0.9999856683558446</v>
+      </c>
+      <c r="S38">
+        <v>0.9999856683558446</v>
+      </c>
+      <c r="T38">
+        <v>0.9999949049909631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000134327500638</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9997044988195821</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.00035819096325</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000134327500638</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000134327500638</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9994627150767404</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994627150767404</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000134327500638</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000134327500638</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000134327500638</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997985212886893</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9997985212886893</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997671804656535</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999104566926723</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999104566926723</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999664243946638</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999664243946638</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999880645602478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000612108296</v>
+      </c>
+      <c r="D40">
+        <v>0.9986533720559783</v>
+      </c>
+      <c r="E40">
+        <v>1.001632276066634</v>
+      </c>
+      <c r="F40">
+        <v>1.000612108296</v>
+      </c>
+      <c r="G40">
+        <v>1.000612108296</v>
+      </c>
+      <c r="H40">
+        <v>0.9975515817807996</v>
+      </c>
+      <c r="I40">
+        <v>0.9975515817807996</v>
+      </c>
+      <c r="J40">
+        <v>1.000612108296</v>
+      </c>
+      <c r="K40">
+        <v>1.000612108296</v>
+      </c>
+      <c r="L40">
+        <v>1.000612108296</v>
+      </c>
+      <c r="M40">
+        <v>0.9990818450383997</v>
+      </c>
+      <c r="N40">
+        <v>0.9990818450383997</v>
+      </c>
+      <c r="O40">
+        <v>0.9989390207109259</v>
+      </c>
+      <c r="P40">
+        <v>0.9995919327909331</v>
+      </c>
+      <c r="Q40">
+        <v>0.9995919327909331</v>
+      </c>
+      <c r="R40">
+        <v>0.9998469766671998</v>
+      </c>
+      <c r="S40">
+        <v>0.9998469766671998</v>
+      </c>
+      <c r="T40">
+        <v>0.9999455924652351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996407854478743</v>
+      </c>
+      <c r="D41">
+        <v>1.000790283663121</v>
+      </c>
+      <c r="E41">
+        <v>0.999042084176086</v>
+      </c>
+      <c r="F41">
+        <v>0.9996407854478743</v>
+      </c>
+      <c r="G41">
+        <v>0.9996407854478743</v>
+      </c>
+      <c r="H41">
+        <v>1.001436872414767</v>
+      </c>
+      <c r="I41">
+        <v>1.001436872414767</v>
+      </c>
+      <c r="J41">
+        <v>0.9996407854478743</v>
+      </c>
+      <c r="K41">
+        <v>0.9996407854478743</v>
+      </c>
+      <c r="L41">
+        <v>0.9996407854478743</v>
+      </c>
+      <c r="M41">
+        <v>1.000538828931321</v>
+      </c>
+      <c r="N41">
+        <v>1.000538828931321</v>
+      </c>
+      <c r="O41">
+        <v>1.000622647175254</v>
+      </c>
+      <c r="P41">
+        <v>1.000239481103505</v>
+      </c>
+      <c r="Q41">
+        <v>1.000239481103505</v>
+      </c>
+      <c r="R41">
+        <v>1.000089807189598</v>
+      </c>
+      <c r="S41">
+        <v>1.000089807189598</v>
+      </c>
+      <c r="T41">
+        <v>1.000031932766266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002380671165144</v>
+      </c>
+      <c r="D42">
+        <v>0.9947625397658072</v>
+      </c>
+      <c r="E42">
+        <v>1.006348436861083</v>
+      </c>
+      <c r="F42">
+        <v>1.002380671165144</v>
+      </c>
+      <c r="G42">
+        <v>1.002380671165144</v>
+      </c>
+      <c r="H42">
+        <v>0.990477340846216</v>
+      </c>
+      <c r="I42">
+        <v>0.990477340846216</v>
+      </c>
+      <c r="J42">
+        <v>1.002380671165144</v>
+      </c>
+      <c r="K42">
+        <v>1.002380671165144</v>
+      </c>
+      <c r="L42">
+        <v>1.002380671165144</v>
+      </c>
+      <c r="M42">
+        <v>0.9964290060056801</v>
+      </c>
+      <c r="N42">
+        <v>0.9964290060056801</v>
+      </c>
+      <c r="O42">
+        <v>0.9958735172590557</v>
+      </c>
+      <c r="P42">
+        <v>0.9984128943921681</v>
+      </c>
+      <c r="Q42">
+        <v>0.9984128943921681</v>
+      </c>
+      <c r="R42">
+        <v>0.9994048385854122</v>
+      </c>
+      <c r="S42">
+        <v>0.9994048385854122</v>
+      </c>
+      <c r="T42">
+        <v>0.9997883884947565</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186224024682</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="D3">
-        <v>0.9992551186075491</v>
+        <v>0.9999255575191442</v>
       </c>
       <c r="E3">
-        <v>1.000186224024682</v>
+        <v>1.000090235492312</v>
       </c>
       <c r="F3">
-        <v>1.000186224024682</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="G3">
-        <v>1.000496586154503</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="H3">
-        <v>0.9995903179903998</v>
+        <v>0.9998646443478417</v>
       </c>
       <c r="I3">
-        <v>1.000186224024682</v>
+        <v>0.9998646443478417</v>
       </c>
       <c r="J3">
-        <v>0.9992551186075491</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="K3">
-        <v>1.000186224024682</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="L3">
-        <v>1.000186224024682</v>
+        <v>1.000033842072742</v>
       </c>
       <c r="M3">
-        <v>0.9997206713161156</v>
+        <v>0.9999492432102919</v>
       </c>
       <c r="N3">
-        <v>0.9997206713161156</v>
+        <v>0.9999492432102919</v>
       </c>
       <c r="O3">
-        <v>0.9996772202075436</v>
+        <v>0.9999413479799094</v>
       </c>
       <c r="P3">
-        <v>0.9998758555523045</v>
+        <v>0.9999774428311087</v>
       </c>
       <c r="Q3">
-        <v>0.9998758555523045</v>
+        <v>0.9999774428311087</v>
       </c>
       <c r="R3">
-        <v>0.999953447670399</v>
+        <v>0.9999915426415171</v>
       </c>
       <c r="S3">
-        <v>0.999953447670399</v>
+        <v>0.9999915426415171</v>
       </c>
       <c r="T3">
-        <v>0.9999834491377498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999969939295874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359500144599</v>
+        <v>1.000612108296</v>
       </c>
       <c r="D4">
-        <v>0.9985620147739913</v>
+        <v>0.9986533720559783</v>
       </c>
       <c r="E4">
-        <v>1.000359500144599</v>
+        <v>1.001632276066634</v>
       </c>
       <c r="F4">
-        <v>1.000359500144599</v>
+        <v>1.000612108296</v>
       </c>
       <c r="G4">
-        <v>1.000958653249511</v>
+        <v>1.000612108296</v>
       </c>
       <c r="H4">
-        <v>0.9992091114104368</v>
+        <v>0.9975515817807996</v>
       </c>
       <c r="I4">
-        <v>1.000359500144599</v>
+        <v>0.9975515817807996</v>
       </c>
       <c r="J4">
-        <v>0.9985620147739913</v>
+        <v>1.000612108296</v>
       </c>
       <c r="K4">
-        <v>1.000359500144599</v>
+        <v>1.000612108296</v>
       </c>
       <c r="L4">
-        <v>1.000359500144599</v>
+        <v>1.000612108296</v>
       </c>
       <c r="M4">
-        <v>0.999460757459295</v>
+        <v>0.9990818450383997</v>
       </c>
       <c r="N4">
-        <v>0.999460757459295</v>
+        <v>0.9990818450383997</v>
       </c>
       <c r="O4">
-        <v>0.9993768754430089</v>
+        <v>0.9989390207109259</v>
       </c>
       <c r="P4">
-        <v>0.9997603383543963</v>
+        <v>0.9995919327909331</v>
       </c>
       <c r="Q4">
-        <v>0.9997603383543963</v>
+        <v>0.9995919327909331</v>
       </c>
       <c r="R4">
-        <v>0.9999101288019469</v>
+        <v>0.9998469766671998</v>
       </c>
       <c r="S4">
-        <v>0.9999101288019469</v>
+        <v>0.9998469766671998</v>
       </c>
       <c r="T4">
-        <v>0.9999680466446227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999455924652351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688936585136</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="D5">
-        <v>0.997244276420573</v>
+        <v>0.9957134079755073</v>
       </c>
       <c r="E5">
-        <v>1.000688936585136</v>
+        <v>1.005195868436601</v>
       </c>
       <c r="F5">
-        <v>1.000688936585136</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="G5">
-        <v>1.00183714359151</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="H5">
-        <v>0.9984843554528625</v>
+        <v>0.9922061922694522</v>
       </c>
       <c r="I5">
-        <v>1.000688936585136</v>
+        <v>0.9922061922694522</v>
       </c>
       <c r="J5">
-        <v>0.997244276420573</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="K5">
-        <v>1.000688936585136</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="L5">
-        <v>1.000688936585136</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="M5">
-        <v>0.9989666065028546</v>
+        <v>0.9970773255763712</v>
       </c>
       <c r="N5">
-        <v>0.9989666065028546</v>
+        <v>0.9970773255763712</v>
       </c>
       <c r="O5">
-        <v>0.9988058561528573</v>
+        <v>0.9966226863760833</v>
       </c>
       <c r="P5">
-        <v>0.9995407165302819</v>
+        <v>0.9987010366786775</v>
       </c>
       <c r="Q5">
-        <v>0.9995407165302819</v>
+        <v>0.9987010366786775</v>
       </c>
       <c r="R5">
-        <v>0.9998277715439955</v>
+        <v>0.9995128922298306</v>
       </c>
       <c r="S5">
-        <v>0.9998277715439955</v>
+        <v>0.9995128922298306</v>
       </c>
       <c r="T5">
-        <v>0.9999387642033923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9998268075552385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010450140336</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="D6">
-        <v>0.9959582424610011</v>
+        <v>0.9856199523716933</v>
       </c>
       <c r="E6">
-        <v>1.001010450140336</v>
+        <v>1.017430348426431</v>
       </c>
       <c r="F6">
-        <v>1.001010450140336</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="G6">
-        <v>1.002694509830448</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="H6">
-        <v>0.99777703348082</v>
+        <v>0.9738544549917697</v>
       </c>
       <c r="I6">
-        <v>1.001010450140336</v>
+        <v>0.9738544549917697</v>
       </c>
       <c r="J6">
-        <v>0.9959582424610011</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="K6">
-        <v>1.001010450140336</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="L6">
-        <v>1.001010450140336</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="M6">
-        <v>0.9984843463006685</v>
+        <v>0.9901954320877</v>
       </c>
       <c r="N6">
-        <v>0.9984843463006685</v>
+        <v>0.9901954320877</v>
       </c>
       <c r="O6">
-        <v>0.998248575360719</v>
+        <v>0.9886702721823645</v>
       </c>
       <c r="P6">
-        <v>0.9993263809138909</v>
+        <v>0.9956424244530101</v>
       </c>
       <c r="Q6">
-        <v>0.9993263809138909</v>
+        <v>0.9956424244530101</v>
       </c>
       <c r="R6">
-        <v>0.9997473982205021</v>
+        <v>0.9983659206356651</v>
       </c>
       <c r="S6">
-        <v>0.9997473982205021</v>
+        <v>0.9983659206356651</v>
       </c>
       <c r="T6">
-        <v>0.9999101893655461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9994189972234642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00001327941879</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="D7">
-        <v>0.9999468947759673</v>
+        <v>0.999552695402581</v>
       </c>
       <c r="E7">
-        <v>1.00001327941879</v>
+        <v>1.000542189788099</v>
       </c>
       <c r="F7">
-        <v>1.00001327941879</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="G7">
-        <v>1.000035402156081</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="H7">
-        <v>0.999970795153431</v>
+        <v>0.9991867136227516</v>
       </c>
       <c r="I7">
-        <v>1.00001327941879</v>
+        <v>0.9991867136227516</v>
       </c>
       <c r="J7">
-        <v>0.9999468947759673</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="K7">
-        <v>1.00001327941879</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="L7">
-        <v>1.00001327941879</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="M7">
-        <v>0.9999800870973785</v>
+        <v>0.99969501933141</v>
       </c>
       <c r="N7">
-        <v>0.9999800870973785</v>
+        <v>0.99969501933141</v>
       </c>
       <c r="O7">
-        <v>0.9999769897827293</v>
+        <v>0.9996475780218003</v>
       </c>
       <c r="P7">
-        <v>0.9999911512045155</v>
+        <v>0.9998644545676294</v>
       </c>
       <c r="Q7">
-        <v>0.9999911512045155</v>
+        <v>0.9998644545676294</v>
       </c>
       <c r="R7">
-        <v>0.999996683258084</v>
+        <v>0.9999491721857392</v>
       </c>
       <c r="S7">
-        <v>0.999996683258084</v>
+        <v>0.9999491721857392</v>
       </c>
       <c r="T7">
-        <v>0.9999988217236413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999819289889395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000033842072742</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="D8">
-        <v>0.9998646443478421</v>
+        <v>0.9999641751444293</v>
       </c>
       <c r="E8">
-        <v>1.000033842072742</v>
+        <v>1.000043426511506</v>
       </c>
       <c r="F8">
-        <v>1.000033842072742</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="G8">
-        <v>1.000090235492312</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="H8">
-        <v>0.9999255575191442</v>
+        <v>0.9999348586389346</v>
       </c>
       <c r="I8">
-        <v>1.000033842072742</v>
+        <v>0.9999348586389346</v>
       </c>
       <c r="J8">
-        <v>0.9998646443478421</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="K8">
-        <v>1.000033842072742</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="L8">
-        <v>1.000033842072742</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="M8">
-        <v>0.9999492432102921</v>
+        <v>0.9999755734653824</v>
       </c>
       <c r="N8">
-        <v>0.9999492432102921</v>
+        <v>0.9999755734653824</v>
       </c>
       <c r="O8">
-        <v>0.9999413479799095</v>
+        <v>0.9999717740250645</v>
       </c>
       <c r="P8">
-        <v>0.9999774428311087</v>
+        <v>0.9999891450741982</v>
       </c>
       <c r="Q8">
-        <v>0.9999774428311087</v>
+        <v>0.9999891450741982</v>
       </c>
       <c r="R8">
-        <v>0.9999915426415171</v>
+        <v>0.9999959308786062</v>
       </c>
       <c r="S8">
-        <v>0.9999915426415171</v>
+        <v>0.9999959308786062</v>
       </c>
       <c r="T8">
-        <v>0.9999969939295874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999985541950599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00004738270163</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="D9">
-        <v>0.9998104827459313</v>
+        <v>0.9992091114104368</v>
       </c>
       <c r="E9">
-        <v>1.00004738270163</v>
+        <v>1.000958653249511</v>
       </c>
       <c r="F9">
-        <v>1.00004738270163</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="G9">
-        <v>1.000126343422665</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="H9">
-        <v>0.999895768899964</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="I9">
-        <v>1.00004738270163</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="J9">
-        <v>0.9998104827459313</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="K9">
-        <v>1.00004738270163</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="L9">
-        <v>1.00004738270163</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="M9">
-        <v>0.9999289327237807</v>
+        <v>0.999460757459295</v>
       </c>
       <c r="N9">
-        <v>0.9999289327237807</v>
+        <v>0.999460757459295</v>
       </c>
       <c r="O9">
-        <v>0.9999178781158418</v>
+        <v>0.9993768754430089</v>
       </c>
       <c r="P9">
-        <v>0.9999684160497305</v>
+        <v>0.9997603383543963</v>
       </c>
       <c r="Q9">
-        <v>0.9999684160497305</v>
+        <v>0.9997603383543963</v>
       </c>
       <c r="R9">
-        <v>0.9999881577127054</v>
+        <v>0.9999101288019469</v>
       </c>
       <c r="S9">
-        <v>0.9999881577127054</v>
+        <v>0.9999101288019469</v>
       </c>
       <c r="T9">
-        <v>0.9999957905289083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999680466446227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000102163945281</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="D10">
-        <v>0.9995913551177344</v>
+        <v>0.9854059267182633</v>
       </c>
       <c r="E10">
-        <v>1.000102163945281</v>
+        <v>1.017689773485133</v>
       </c>
       <c r="F10">
-        <v>1.000102163945281</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="G10">
-        <v>1.000272428112773</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="H10">
-        <v>0.9997752488185604</v>
+        <v>0.9734653170650405</v>
       </c>
       <c r="I10">
-        <v>1.000102163945281</v>
+        <v>0.9734653170650405</v>
       </c>
       <c r="J10">
-        <v>0.9995913551177344</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="K10">
-        <v>1.000102163945281</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="L10">
-        <v>1.000102163945281</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="M10">
-        <v>0.9998467595315076</v>
+        <v>0.9900495053024914</v>
       </c>
       <c r="N10">
-        <v>0.9998467595315076</v>
+        <v>0.9900495053024914</v>
       </c>
       <c r="O10">
-        <v>0.9998229226271919</v>
+        <v>0.9885016457744152</v>
       </c>
       <c r="P10">
-        <v>0.9999318943360986</v>
+        <v>0.9955775680483083</v>
       </c>
       <c r="Q10">
-        <v>0.9999318943360986</v>
+        <v>0.9955775680483083</v>
       </c>
       <c r="R10">
-        <v>0.9999744617383941</v>
+        <v>0.9983415994212168</v>
       </c>
       <c r="S10">
-        <v>0.9999744617383941</v>
+        <v>0.9983415994212168</v>
       </c>
       <c r="T10">
-        <v>0.999990920647485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.999410349648044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000169464490425</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="D11">
-        <v>0.999322153909101</v>
+        <v>0.9987305389055767</v>
       </c>
       <c r="E11">
-        <v>1.000169464490425</v>
+        <v>1.001538741932594</v>
       </c>
       <c r="F11">
-        <v>1.000169464490425</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="G11">
-        <v>1.000451895256027</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="H11">
-        <v>0.9996271880439187</v>
+        <v>0.9976918832360442</v>
       </c>
       <c r="I11">
-        <v>1.000169464490425</v>
+        <v>0.9976918832360442</v>
       </c>
       <c r="J11">
-        <v>0.999322153909101</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="K11">
-        <v>1.000169464490425</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="L11">
-        <v>1.000169464490425</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="M11">
-        <v>0.9997458091997631</v>
+        <v>0.9991344579669507</v>
       </c>
       <c r="N11">
-        <v>0.9997458091997631</v>
+        <v>0.9991344579669507</v>
       </c>
       <c r="O11">
-        <v>0.9997062688144815</v>
+        <v>0.998999818279826</v>
       </c>
       <c r="P11">
-        <v>0.9998870276299838</v>
+        <v>0.9996153162105861</v>
       </c>
       <c r="Q11">
-        <v>0.9998870276299838</v>
+        <v>0.9996153162105861</v>
       </c>
       <c r="R11">
-        <v>0.9999576368450942</v>
+        <v>0.9998557453324038</v>
       </c>
       <c r="S11">
-        <v>0.9999576368450942</v>
+        <v>0.9998557453324038</v>
       </c>
       <c r="T11">
-        <v>0.9999849384467203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999487103612976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984980588624283</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="D12">
-        <v>1.006007763657166</v>
+        <v>0.9956205051368453</v>
       </c>
       <c r="E12">
-        <v>0.9984980588624283</v>
+        <v>1.00530847676842</v>
       </c>
       <c r="F12">
-        <v>0.9984980588624283</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="G12">
-        <v>0.9959948191256445</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="H12">
-        <v>1.003304276780935</v>
+        <v>0.9920372779789444</v>
       </c>
       <c r="I12">
-        <v>0.9984980588624283</v>
+        <v>0.9920372779789444</v>
       </c>
       <c r="J12">
-        <v>1.006007763657166</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="K12">
-        <v>0.9984980588624283</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="L12">
-        <v>0.9984980588624283</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="M12">
-        <v>1.002252911259797</v>
+        <v>0.9970139826789469</v>
       </c>
       <c r="N12">
-        <v>1.002252911259797</v>
+        <v>0.9970139826789469</v>
       </c>
       <c r="O12">
-        <v>1.00260336643351</v>
+        <v>0.996549490164913</v>
       </c>
       <c r="P12">
-        <v>1.001001293794008</v>
+        <v>0.9986728842456145</v>
       </c>
       <c r="Q12">
-        <v>1.001001293794008</v>
+        <v>0.9986728842456145</v>
       </c>
       <c r="R12">
-        <v>1.000375485061113</v>
+        <v>0.9995023350289483</v>
       </c>
       <c r="S12">
-        <v>1.000375485061113</v>
+        <v>0.9995023350289483</v>
       </c>
       <c r="T12">
-        <v>1.000133506025172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9998230536701764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996122181905323</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="D13">
-        <v>1.001551127811809</v>
+        <v>1.002870277864287</v>
       </c>
       <c r="E13">
-        <v>0.9996122181905323</v>
+        <v>0.9965208781206016</v>
       </c>
       <c r="F13">
-        <v>0.9996122181905323</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="G13">
-        <v>0.9989659107180929</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="H13">
-        <v>1.000853125577563</v>
+        <v>1.005218679741514</v>
       </c>
       <c r="I13">
-        <v>0.9996122181905323</v>
+        <v>1.005218679741514</v>
       </c>
       <c r="J13">
-        <v>1.001551127811809</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="K13">
-        <v>0.9996122181905323</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="L13">
-        <v>0.9996122181905323</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="M13">
-        <v>1.00058167300117</v>
+        <v>1.001957004984158</v>
       </c>
       <c r="N13">
-        <v>1.00058167300117</v>
+        <v>1.001957004984158</v>
       </c>
       <c r="O13">
-        <v>1.000672157193301</v>
+        <v>1.002261429277534</v>
       </c>
       <c r="P13">
-        <v>1.000258521397624</v>
+        <v>1.000869780065039</v>
       </c>
       <c r="Q13">
-        <v>1.000258521397624</v>
+        <v>1.000869780065039</v>
       </c>
       <c r="R13">
-        <v>1.000096945595851</v>
+        <v>1.00032616760548</v>
       </c>
       <c r="S13">
-        <v>1.000096945595851</v>
+        <v>1.00032616760548</v>
       </c>
       <c r="T13">
-        <v>1.000034469779844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000115971067801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981488269126</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D14">
-        <v>1.00600739636995</v>
+        <v>0.9747856700000013</v>
       </c>
       <c r="E14">
-        <v>0.9984981488269126</v>
+        <v>1.030562799999999</v>
       </c>
       <c r="F14">
-        <v>0.9984981488269126</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="G14">
-        <v>0.995995060890392</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H14">
-        <v>1.003304075882351</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="I14">
-        <v>0.9984981488269126</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="J14">
-        <v>1.00600739636995</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="K14">
-        <v>0.9984981488269126</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="L14">
-        <v>0.9984981488269126</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M14">
-        <v>1.002252772598431</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="N14">
-        <v>1.002252772598431</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="O14">
-        <v>1.002603207026404</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P14">
-        <v>1.001001231341258</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="Q14">
-        <v>1.001001231341258</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="R14">
-        <v>1.000375460712672</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="S14">
-        <v>1.000375460712672</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="T14">
-        <v>1.000133496603905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9989812549999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996122365047422</v>
+        <v>1.004298</v>
       </c>
       <c r="D15">
-        <v>1.001551032302387</v>
+        <v>0.99054447</v>
       </c>
       <c r="E15">
-        <v>0.9996122365047422</v>
+        <v>1.0114612</v>
       </c>
       <c r="F15">
-        <v>0.9996122365047422</v>
+        <v>1.004298</v>
       </c>
       <c r="G15">
-        <v>0.9989659757597196</v>
+        <v>1.004298</v>
       </c>
       <c r="H15">
-        <v>1.000853064714728</v>
+        <v>0.98280813</v>
       </c>
       <c r="I15">
-        <v>0.9996122365047422</v>
+        <v>0.98280813</v>
       </c>
       <c r="J15">
-        <v>1.001551032302387</v>
+        <v>1.004298</v>
       </c>
       <c r="K15">
-        <v>0.9996122365047422</v>
+        <v>1.004298</v>
       </c>
       <c r="L15">
-        <v>0.9996122365047422</v>
+        <v>1.004298</v>
       </c>
       <c r="M15">
-        <v>1.000581634403564</v>
+        <v>0.993553065</v>
       </c>
       <c r="N15">
-        <v>1.000581634403564</v>
+        <v>0.993553065</v>
       </c>
       <c r="O15">
-        <v>1.000672111173952</v>
+        <v>0.9925502</v>
       </c>
       <c r="P15">
-        <v>1.000258501770624</v>
+        <v>0.99713471</v>
       </c>
       <c r="Q15">
-        <v>1.000258501770624</v>
+        <v>0.99713471</v>
       </c>
       <c r="R15">
-        <v>1.000096935454153</v>
+        <v>0.9989255324999999</v>
       </c>
       <c r="S15">
-        <v>1.000096935454153</v>
+        <v>0.9989255324999999</v>
       </c>
       <c r="T15">
-        <v>1.000034463715177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000772255514</v>
+        <v>1.0042978</v>
       </c>
       <c r="D16">
-        <v>0.9999969237810674</v>
+        <v>0.99054493</v>
       </c>
       <c r="E16">
-        <v>1.000000772255514</v>
+        <v>1.0114607</v>
       </c>
       <c r="F16">
-        <v>1.000000772255514</v>
+        <v>1.0042978</v>
       </c>
       <c r="G16">
-        <v>1.000002049487341</v>
+        <v>1.0042978</v>
       </c>
       <c r="H16">
-        <v>0.9999983110932236</v>
+        <v>0.98280896</v>
       </c>
       <c r="I16">
-        <v>1.000000772255514</v>
+        <v>0.98280896</v>
       </c>
       <c r="J16">
-        <v>0.9999969237810674</v>
+        <v>1.0042978</v>
       </c>
       <c r="K16">
-        <v>1.000000772255514</v>
+        <v>1.0042978</v>
       </c>
       <c r="L16">
-        <v>1.000000772255514</v>
+        <v>1.0042978</v>
       </c>
       <c r="M16">
-        <v>0.9999988480182909</v>
+        <v>0.99355338</v>
       </c>
       <c r="N16">
-        <v>0.9999988480182909</v>
+        <v>0.99355338</v>
       </c>
       <c r="O16">
-        <v>0.9999986690432685</v>
+        <v>0.9925505633333334</v>
       </c>
       <c r="P16">
-        <v>0.9999994894306986</v>
+        <v>0.9971348533333334</v>
       </c>
       <c r="Q16">
-        <v>0.9999994894306986</v>
+        <v>0.9971348533333334</v>
       </c>
       <c r="R16">
-        <v>0.9999998101369025</v>
+        <v>0.99892559</v>
       </c>
       <c r="S16">
-        <v>0.9999998101369025</v>
+        <v>0.99892559</v>
       </c>
       <c r="T16">
-        <v>0.9999999335213623</v>
+        <v>0.9996179983333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00001628829183</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="D17">
-        <v>0.9999348586389345</v>
+        <v>1.0072884</v>
       </c>
       <c r="E17">
-        <v>1.00001628829183</v>
+        <v>0.9911655400000001</v>
       </c>
       <c r="F17">
-        <v>1.00001628829183</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="G17">
-        <v>1.000043426511506</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="H17">
-        <v>0.9999641751444293</v>
+        <v>1.0132517</v>
       </c>
       <c r="I17">
-        <v>1.00001628829183</v>
+        <v>1.0132517</v>
       </c>
       <c r="J17">
-        <v>0.9999348586389345</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="K17">
-        <v>1.00001628829183</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="L17">
-        <v>1.00001628829183</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="M17">
-        <v>0.9999755734653825</v>
+        <v>1.00496939</v>
       </c>
       <c r="N17">
-        <v>0.9999755734653825</v>
+        <v>1.00496939</v>
       </c>
       <c r="O17">
-        <v>0.9999717740250648</v>
+        <v>1.005742393333333</v>
       </c>
       <c r="P17">
-        <v>0.9999891450741986</v>
+        <v>1.00220862</v>
       </c>
       <c r="Q17">
-        <v>0.9999891450741986</v>
+        <v>1.00220862</v>
       </c>
       <c r="R17">
-        <v>0.9999959308786065</v>
+        <v>1.000828235</v>
       </c>
       <c r="S17">
-        <v>0.9999959308786065</v>
+        <v>1.000828235</v>
       </c>
       <c r="T17">
-        <v>0.9999985541950602</v>
+        <v>1.00029448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057339302667</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="D18">
-        <v>0.9997706555153776</v>
+        <v>0.9905446223287678</v>
       </c>
       <c r="E18">
-        <v>1.000057339302667</v>
+        <v>1.011461060273973</v>
       </c>
       <c r="F18">
-        <v>1.000057339302667</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="G18">
-        <v>1.000152893143081</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="H18">
-        <v>0.9998738633793193</v>
+        <v>0.982808405890411</v>
       </c>
       <c r="I18">
-        <v>1.000057339302667</v>
+        <v>0.982808405890411</v>
       </c>
       <c r="J18">
-        <v>0.9997706555153776</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="K18">
-        <v>1.000057339302667</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="L18">
-        <v>1.000057339302667</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="M18">
-        <v>0.9999139974090222</v>
+        <v>0.9935531591095893</v>
       </c>
       <c r="N18">
-        <v>0.9999139974090222</v>
+        <v>0.9935531591095893</v>
       </c>
       <c r="O18">
-        <v>0.9999006193991212</v>
+        <v>0.9925503135159821</v>
       </c>
       <c r="P18">
-        <v>0.9999617780402371</v>
+        <v>0.9971347435159821</v>
       </c>
       <c r="Q18">
-        <v>0.9999617780402371</v>
+        <v>0.9971347435159821</v>
       </c>
       <c r="R18">
-        <v>0.9999856683558446</v>
+        <v>0.9989255357191784</v>
       </c>
       <c r="S18">
-        <v>0.9999856683558446</v>
+        <v>0.9989255357191784</v>
       </c>
       <c r="T18">
-        <v>0.9999949049909631</v>
+        <v>0.9996179709132424</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134327500638</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="D19">
-        <v>0.9994627150767404</v>
+        <v>0.9957284505263159</v>
       </c>
       <c r="E19">
-        <v>1.000134327500638</v>
+        <v>1.005177635789474</v>
       </c>
       <c r="F19">
-        <v>1.000134327500638</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="G19">
-        <v>1.00035819096325</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="H19">
-        <v>0.9997044988195818</v>
+        <v>0.9922335389473684</v>
       </c>
       <c r="I19">
-        <v>1.000134327500638</v>
+        <v>0.9922335389473684</v>
       </c>
       <c r="J19">
-        <v>0.9994627150767404</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="K19">
-        <v>1.000134327500638</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="L19">
-        <v>1.000134327500638</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="M19">
-        <v>0.9997985212886893</v>
+        <v>0.9970875805263157</v>
       </c>
       <c r="N19">
-        <v>0.9997985212886893</v>
+        <v>0.9970875805263157</v>
       </c>
       <c r="O19">
-        <v>0.9997671804656534</v>
+        <v>0.9966345371929825</v>
       </c>
       <c r="P19">
-        <v>0.9999104566926723</v>
+        <v>0.998705594385965</v>
       </c>
       <c r="Q19">
-        <v>0.9999104566926723</v>
+        <v>0.998705594385965</v>
       </c>
       <c r="R19">
-        <v>0.9999664243946638</v>
+        <v>0.9995146013157894</v>
       </c>
       <c r="S19">
-        <v>0.9999664243946638</v>
+        <v>0.9995146013157894</v>
       </c>
       <c r="T19">
-        <v>0.9999880645602478</v>
+        <v>0.9998274152631579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="D20">
+        <v>0.9957285957894738</v>
+      </c>
+      <c r="E20">
+        <v>1.005177446842105</v>
+      </c>
+      <c r="F20">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="G20">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="H20">
+        <v>0.9922338194736843</v>
+      </c>
+      <c r="I20">
+        <v>0.9922338194736843</v>
+      </c>
+      <c r="J20">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="K20">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="L20">
+        <v>1.001941558421052</v>
+      </c>
+      <c r="M20">
+        <v>0.9970876889473683</v>
+      </c>
+      <c r="N20">
+        <v>0.9970876889473683</v>
+      </c>
+      <c r="O20">
+        <v>0.9966346578947368</v>
+      </c>
+      <c r="P20">
+        <v>0.9987056454385964</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987056454385964</v>
+      </c>
+      <c r="R20">
+        <v>0.9995146236842104</v>
+      </c>
+      <c r="S20">
+        <v>0.9995146236842104</v>
+      </c>
+      <c r="T20">
+        <v>0.9998274228947368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="D21">
+        <v>1.003304075882351</v>
+      </c>
+      <c r="E21">
+        <v>0.9959950608903921</v>
+      </c>
+      <c r="F21">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="G21">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="H21">
+        <v>1.00600739636995</v>
+      </c>
+      <c r="I21">
+        <v>1.00600739636995</v>
+      </c>
+      <c r="J21">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="K21">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="L21">
+        <v>0.9984981488269123</v>
+      </c>
+      <c r="M21">
+        <v>1.002252772598431</v>
+      </c>
+      <c r="N21">
+        <v>1.002252772598431</v>
+      </c>
+      <c r="O21">
+        <v>1.002603207026404</v>
+      </c>
+      <c r="P21">
+        <v>1.001001231341258</v>
+      </c>
+      <c r="Q21">
+        <v>1.001001231341258</v>
+      </c>
+      <c r="R21">
+        <v>1.000375460712672</v>
+      </c>
+      <c r="S21">
+        <v>1.000375460712672</v>
+      </c>
+      <c r="T21">
+        <v>1.000133496603905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="D22">
+        <v>1.000853064714728</v>
+      </c>
+      <c r="E22">
+        <v>0.9989659757597195</v>
+      </c>
+      <c r="F22">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="G22">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="H22">
+        <v>1.001551032302386</v>
+      </c>
+      <c r="I22">
+        <v>1.001551032302386</v>
+      </c>
+      <c r="J22">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="K22">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="L22">
+        <v>0.9996122365047422</v>
+      </c>
+      <c r="M22">
+        <v>1.000581634403564</v>
+      </c>
+      <c r="N22">
+        <v>1.000581634403564</v>
+      </c>
+      <c r="O22">
+        <v>1.000672111173952</v>
+      </c>
+      <c r="P22">
+        <v>1.000258501770624</v>
+      </c>
+      <c r="Q22">
+        <v>1.000258501770624</v>
+      </c>
+      <c r="R22">
+        <v>1.000096935454153</v>
+      </c>
+      <c r="S22">
+        <v>1.000096935454153</v>
+      </c>
+      <c r="T22">
+        <v>1.000034463715177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="D23">
+        <v>1.003304276780935</v>
+      </c>
+      <c r="E23">
+        <v>0.9959948191256445</v>
+      </c>
+      <c r="F23">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="G23">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="H23">
+        <v>1.006007763657166</v>
+      </c>
+      <c r="I23">
+        <v>1.006007763657166</v>
+      </c>
+      <c r="J23">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="K23">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="L23">
+        <v>0.9984980588624283</v>
+      </c>
+      <c r="M23">
+        <v>1.002252911259797</v>
+      </c>
+      <c r="N23">
+        <v>1.002252911259797</v>
+      </c>
+      <c r="O23">
+        <v>1.00260336643351</v>
+      </c>
+      <c r="P23">
+        <v>1.001001293794008</v>
+      </c>
+      <c r="Q23">
+        <v>1.001001293794008</v>
+      </c>
+      <c r="R23">
+        <v>1.000375485061113</v>
+      </c>
+      <c r="S23">
+        <v>1.000375485061113</v>
+      </c>
+      <c r="T23">
+        <v>1.000133506025172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="D24">
+        <v>1.000853125577563</v>
+      </c>
+      <c r="E24">
+        <v>0.9989659107180929</v>
+      </c>
+      <c r="F24">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="G24">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="H24">
+        <v>1.001551127811809</v>
+      </c>
+      <c r="I24">
+        <v>1.001551127811809</v>
+      </c>
+      <c r="J24">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="K24">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="L24">
+        <v>0.9996122181905323</v>
+      </c>
+      <c r="M24">
+        <v>1.00058167300117</v>
+      </c>
+      <c r="N24">
+        <v>1.00058167300117</v>
+      </c>
+      <c r="O24">
+        <v>1.000672157193301</v>
+      </c>
+      <c r="P24">
+        <v>1.000258521397624</v>
+      </c>
+      <c r="Q24">
+        <v>1.000258521397624</v>
+      </c>
+      <c r="R24">
+        <v>1.000096945595851</v>
+      </c>
+      <c r="S24">
+        <v>1.000096945595851</v>
+      </c>
+      <c r="T24">
+        <v>1.000034469779844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.99849794631838</v>
+      </c>
+      <c r="D25">
+        <v>1.003304500204499</v>
+      </c>
+      <c r="E25">
+        <v>0.9959945439077726</v>
+      </c>
+      <c r="F25">
+        <v>0.99849794631838</v>
+      </c>
+      <c r="G25">
+        <v>0.99849794631838</v>
+      </c>
+      <c r="H25">
+        <v>1.006008179281576</v>
+      </c>
+      <c r="I25">
+        <v>1.006008179281576</v>
+      </c>
+      <c r="J25">
+        <v>0.99849794631838</v>
+      </c>
+      <c r="K25">
+        <v>0.99849794631838</v>
+      </c>
+      <c r="L25">
+        <v>0.99849794631838</v>
+      </c>
+      <c r="M25">
+        <v>1.002253062799978</v>
+      </c>
+      <c r="N25">
+        <v>1.002253062799978</v>
+      </c>
+      <c r="O25">
+        <v>1.002603541934818</v>
+      </c>
+      <c r="P25">
+        <v>1.001001357306112</v>
+      </c>
+      <c r="Q25">
+        <v>1.001001357306112</v>
+      </c>
+      <c r="R25">
+        <v>1.000375504559179</v>
+      </c>
+      <c r="S25">
+        <v>1.000375504559179</v>
+      </c>
+      <c r="T25">
+        <v>1.000133510391498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9996121855215355</v>
+      </c>
+      <c r="D26">
+        <v>1.00085319051952</v>
+      </c>
+      <c r="E26">
+        <v>0.9989658418845155</v>
+      </c>
+      <c r="F26">
+        <v>0.9996121855215355</v>
+      </c>
+      <c r="G26">
+        <v>0.9996121855215355</v>
+      </c>
+      <c r="H26">
+        <v>1.001551243795023</v>
+      </c>
+      <c r="I26">
+        <v>1.001551243795023</v>
+      </c>
+      <c r="J26">
+        <v>0.9996121855215355</v>
+      </c>
+      <c r="K26">
+        <v>0.9996121855215355</v>
+      </c>
+      <c r="L26">
+        <v>0.9996121855215355</v>
+      </c>
+      <c r="M26">
+        <v>1.000581714658279</v>
+      </c>
+      <c r="N26">
+        <v>1.000581714658279</v>
+      </c>
+      <c r="O26">
+        <v>1.000672206612026</v>
+      </c>
+      <c r="P26">
+        <v>1.000258538279365</v>
+      </c>
+      <c r="Q26">
+        <v>1.000258538279365</v>
+      </c>
+      <c r="R26">
+        <v>1.000096950089907</v>
+      </c>
+      <c r="S26">
+        <v>1.000096950089907</v>
+      </c>
+      <c r="T26">
+        <v>1.000034472127278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="D27">
+        <v>0.9984972252365995</v>
+      </c>
+      <c r="E27">
+        <v>1.001821538914926</v>
+      </c>
+      <c r="F27">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="G27">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="H27">
+        <v>0.9972676834293492</v>
+      </c>
+      <c r="I27">
+        <v>0.9972676834293492</v>
+      </c>
+      <c r="J27">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="K27">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="L27">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="M27">
+        <v>0.9989753788830402</v>
+      </c>
+      <c r="N27">
+        <v>0.9989753788830402</v>
+      </c>
+      <c r="O27">
+        <v>0.9988159943342266</v>
+      </c>
+      <c r="P27">
+        <v>0.9995446107009371</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995446107009371</v>
+      </c>
+      <c r="R27">
+        <v>0.9998292266098856</v>
+      </c>
+      <c r="S27">
+        <v>0.9998292266098856</v>
+      </c>
+      <c r="T27">
+        <v>0.9999392784318447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="D28">
+        <v>1.000260683684215</v>
+      </c>
+      <c r="E28">
+        <v>0.9996840307369671</v>
+      </c>
+      <c r="F28">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="G28">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="H28">
+        <v>1.000473965713346</v>
+      </c>
+      <c r="I28">
+        <v>1.000473965713346</v>
+      </c>
+      <c r="J28">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="K28">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="L28">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="M28">
+        <v>1.000177739600962</v>
+      </c>
+      <c r="N28">
+        <v>1.000177739600962</v>
+      </c>
+      <c r="O28">
+        <v>1.000205387628713</v>
+      </c>
+      <c r="P28">
+        <v>1.000078997563501</v>
+      </c>
+      <c r="Q28">
+        <v>1.000078997563501</v>
+      </c>
+      <c r="R28">
+        <v>1.00002962654477</v>
+      </c>
+      <c r="S28">
+        <v>1.00002962654477</v>
+      </c>
+      <c r="T28">
+        <v>1.00001053676671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9977960794856442</v>
+      </c>
+      <c r="D29">
+        <v>1.004848642183403</v>
+      </c>
+      <c r="E29">
+        <v>0.9941228698733698</v>
+      </c>
+      <c r="F29">
+        <v>0.9977960794856442</v>
+      </c>
+      <c r="G29">
+        <v>0.9977960794856442</v>
+      </c>
+      <c r="H29">
+        <v>1.008815690812178</v>
+      </c>
+      <c r="I29">
+        <v>1.008815690812178</v>
+      </c>
+      <c r="J29">
+        <v>0.9977960794856442</v>
+      </c>
+      <c r="K29">
+        <v>0.9977960794856442</v>
+      </c>
+      <c r="L29">
+        <v>0.9977960794856442</v>
+      </c>
+      <c r="M29">
+        <v>1.003305885148911</v>
+      </c>
+      <c r="N29">
+        <v>1.003305885148911</v>
+      </c>
+      <c r="O29">
+        <v>1.003820137493742</v>
+      </c>
+      <c r="P29">
+        <v>1.001469283261155</v>
+      </c>
+      <c r="Q29">
+        <v>1.001469283261155</v>
+      </c>
+      <c r="R29">
+        <v>1.000550982317278</v>
+      </c>
+      <c r="S29">
+        <v>1.000550982317278</v>
+      </c>
+      <c r="T29">
+        <v>1.000195906887647</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000612108296</v>
+        <v>1.001634265790367</v>
       </c>
       <c r="D4">
-        <v>0.9986533720559783</v>
+        <v>0.9964046302435207</v>
       </c>
       <c r="E4">
-        <v>1.001632276066634</v>
+        <v>1.004358024212005</v>
       </c>
       <c r="F4">
-        <v>1.000612108296</v>
+        <v>1.001634265790367</v>
       </c>
       <c r="G4">
-        <v>1.000612108296</v>
+        <v>1.001634265790367</v>
       </c>
       <c r="H4">
-        <v>0.9975515817807996</v>
+        <v>0.9934629596800547</v>
       </c>
       <c r="I4">
-        <v>0.9975515817807996</v>
+        <v>0.9934629596800547</v>
       </c>
       <c r="J4">
-        <v>1.000612108296</v>
+        <v>1.001634265790367</v>
       </c>
       <c r="K4">
-        <v>1.000612108296</v>
+        <v>1.001634265790367</v>
       </c>
       <c r="L4">
-        <v>1.000612108296</v>
+        <v>1.001634265790367</v>
       </c>
       <c r="M4">
-        <v>0.9990818450383997</v>
+        <v>0.9975486127352111</v>
       </c>
       <c r="N4">
-        <v>0.9990818450383997</v>
+        <v>0.9975486127352111</v>
       </c>
       <c r="O4">
-        <v>0.9989390207109259</v>
+        <v>0.9971672852379809</v>
       </c>
       <c r="P4">
-        <v>0.9995919327909331</v>
+        <v>0.9989104970869299</v>
       </c>
       <c r="Q4">
-        <v>0.9995919327909331</v>
+        <v>0.9989104970869299</v>
       </c>
       <c r="R4">
-        <v>0.9998469766671998</v>
+        <v>0.9995914392627894</v>
       </c>
       <c r="S4">
-        <v>0.9998469766671998</v>
+        <v>0.9995914392627894</v>
       </c>
       <c r="T4">
-        <v>0.9999455924652351</v>
+        <v>0.9998547352511138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00194845888329</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="D5">
-        <v>0.9957134079755073</v>
+        <v>0.9975216594116584</v>
       </c>
       <c r="E5">
-        <v>1.005195868436601</v>
+        <v>1.003004038437672</v>
       </c>
       <c r="F5">
-        <v>1.00194845888329</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="G5">
-        <v>1.00194845888329</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="H5">
-        <v>0.9922061922694522</v>
+        <v>0.9954939362366227</v>
       </c>
       <c r="I5">
-        <v>0.9922061922694522</v>
+        <v>0.9954939362366227</v>
       </c>
       <c r="J5">
-        <v>1.00194845888329</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="K5">
-        <v>1.00194845888329</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="L5">
-        <v>1.00194845888329</v>
+        <v>1.00112652637995</v>
       </c>
       <c r="M5">
-        <v>0.9970773255763712</v>
+        <v>0.9983102313082866</v>
       </c>
       <c r="N5">
-        <v>0.9970773255763712</v>
+        <v>0.9983102313082866</v>
       </c>
       <c r="O5">
-        <v>0.9966226863760833</v>
+        <v>0.9980473740094106</v>
       </c>
       <c r="P5">
-        <v>0.9987010366786775</v>
+        <v>0.9992489963321743</v>
       </c>
       <c r="Q5">
-        <v>0.9987010366786775</v>
+        <v>0.9992489963321743</v>
       </c>
       <c r="R5">
-        <v>0.9995128922298306</v>
+        <v>0.9997183788441184</v>
       </c>
       <c r="S5">
-        <v>0.9995128922298306</v>
+        <v>0.9997183788441184</v>
       </c>
       <c r="T5">
-        <v>0.9998268075552385</v>
+        <v>0.9998998688709673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00653640918363</v>
+        <v>1.000612108296</v>
       </c>
       <c r="D6">
-        <v>0.9856199523716933</v>
+        <v>0.9986533720559783</v>
       </c>
       <c r="E6">
-        <v>1.017430348426431</v>
+        <v>1.001632276066634</v>
       </c>
       <c r="F6">
-        <v>1.00653640918363</v>
+        <v>1.000612108296</v>
       </c>
       <c r="G6">
-        <v>1.00653640918363</v>
+        <v>1.000612108296</v>
       </c>
       <c r="H6">
-        <v>0.9738544549917697</v>
+        <v>0.9975515817807996</v>
       </c>
       <c r="I6">
-        <v>0.9738544549917697</v>
+        <v>0.9975515817807996</v>
       </c>
       <c r="J6">
-        <v>1.00653640918363</v>
+        <v>1.000612108296</v>
       </c>
       <c r="K6">
-        <v>1.00653640918363</v>
+        <v>1.000612108296</v>
       </c>
       <c r="L6">
-        <v>1.00653640918363</v>
+        <v>1.000612108296</v>
       </c>
       <c r="M6">
-        <v>0.9901954320877</v>
+        <v>0.9990818450383997</v>
       </c>
       <c r="N6">
-        <v>0.9901954320877</v>
+        <v>0.9990818450383997</v>
       </c>
       <c r="O6">
-        <v>0.9886702721823645</v>
+        <v>0.9989390207109259</v>
       </c>
       <c r="P6">
-        <v>0.9956424244530101</v>
+        <v>0.9995919327909331</v>
       </c>
       <c r="Q6">
-        <v>0.9956424244530101</v>
+        <v>0.9995919327909331</v>
       </c>
       <c r="R6">
-        <v>0.9983659206356651</v>
+        <v>0.9998469766671998</v>
       </c>
       <c r="S6">
-        <v>0.9983659206356651</v>
+        <v>0.9998469766671998</v>
       </c>
       <c r="T6">
-        <v>0.9994189972234642</v>
+        <v>0.9999455924652351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000203325040068</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="D7">
-        <v>0.999552695402581</v>
+        <v>0.9957134079755073</v>
       </c>
       <c r="E7">
-        <v>1.000542189788099</v>
+        <v>1.005195868436601</v>
       </c>
       <c r="F7">
-        <v>1.000203325040068</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="G7">
-        <v>1.000203325040068</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="H7">
-        <v>0.9991867136227516</v>
+        <v>0.9922061922694522</v>
       </c>
       <c r="I7">
-        <v>0.9991867136227516</v>
+        <v>0.9922061922694522</v>
       </c>
       <c r="J7">
-        <v>1.000203325040068</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="K7">
-        <v>1.000203325040068</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="L7">
-        <v>1.000203325040068</v>
+        <v>1.00194845888329</v>
       </c>
       <c r="M7">
-        <v>0.99969501933141</v>
+        <v>0.9970773255763712</v>
       </c>
       <c r="N7">
-        <v>0.99969501933141</v>
+        <v>0.9970773255763712</v>
       </c>
       <c r="O7">
-        <v>0.9996475780218003</v>
+        <v>0.9966226863760833</v>
       </c>
       <c r="P7">
-        <v>0.9998644545676294</v>
+        <v>0.9987010366786775</v>
       </c>
       <c r="Q7">
-        <v>0.9998644545676294</v>
+        <v>0.9987010366786775</v>
       </c>
       <c r="R7">
-        <v>0.9999491721857392</v>
+        <v>0.9995128922298306</v>
       </c>
       <c r="S7">
-        <v>0.9999491721857392</v>
+        <v>0.9995128922298306</v>
       </c>
       <c r="T7">
-        <v>0.9999819289889395</v>
+        <v>0.9998268075552385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00001628829183</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="D8">
-        <v>0.9999641751444293</v>
+        <v>0.9856199523716933</v>
       </c>
       <c r="E8">
-        <v>1.000043426511506</v>
+        <v>1.017430348426431</v>
       </c>
       <c r="F8">
-        <v>1.00001628829183</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="G8">
-        <v>1.00001628829183</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="H8">
-        <v>0.9999348586389346</v>
+        <v>0.9738544549917697</v>
       </c>
       <c r="I8">
-        <v>0.9999348586389346</v>
+        <v>0.9738544549917697</v>
       </c>
       <c r="J8">
-        <v>1.00001628829183</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="K8">
-        <v>1.00001628829183</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="L8">
-        <v>1.00001628829183</v>
+        <v>1.00653640918363</v>
       </c>
       <c r="M8">
-        <v>0.9999755734653824</v>
+        <v>0.9901954320877</v>
       </c>
       <c r="N8">
-        <v>0.9999755734653824</v>
+        <v>0.9901954320877</v>
       </c>
       <c r="O8">
-        <v>0.9999717740250645</v>
+        <v>0.9886702721823645</v>
       </c>
       <c r="P8">
-        <v>0.9999891450741982</v>
+        <v>0.9956424244530101</v>
       </c>
       <c r="Q8">
-        <v>0.9999891450741982</v>
+        <v>0.9956424244530101</v>
       </c>
       <c r="R8">
-        <v>0.9999959308786062</v>
+        <v>0.9983659206356651</v>
       </c>
       <c r="S8">
-        <v>0.9999959308786062</v>
+        <v>0.9983659206356651</v>
       </c>
       <c r="T8">
-        <v>0.9999985541950599</v>
+        <v>0.9994189972234642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000359500144599</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="D9">
-        <v>0.9992091114104368</v>
+        <v>0.999552695402581</v>
       </c>
       <c r="E9">
-        <v>1.000958653249511</v>
+        <v>1.000542189788099</v>
       </c>
       <c r="F9">
-        <v>1.000359500144599</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="G9">
-        <v>1.000359500144599</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="H9">
-        <v>0.9985620147739913</v>
+        <v>0.9991867136227516</v>
       </c>
       <c r="I9">
-        <v>0.9985620147739913</v>
+        <v>0.9991867136227516</v>
       </c>
       <c r="J9">
-        <v>1.000359500144599</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="K9">
-        <v>1.000359500144599</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="L9">
-        <v>1.000359500144599</v>
+        <v>1.000203325040068</v>
       </c>
       <c r="M9">
-        <v>0.999460757459295</v>
+        <v>0.99969501933141</v>
       </c>
       <c r="N9">
-        <v>0.999460757459295</v>
+        <v>0.99969501933141</v>
       </c>
       <c r="O9">
-        <v>0.9993768754430089</v>
+        <v>0.9996475780218003</v>
       </c>
       <c r="P9">
-        <v>0.9997603383543963</v>
+        <v>0.9998644545676294</v>
       </c>
       <c r="Q9">
-        <v>0.9997603383543963</v>
+        <v>0.9998644545676294</v>
       </c>
       <c r="R9">
-        <v>0.9999101288019469</v>
+        <v>0.9999491721857392</v>
       </c>
       <c r="S9">
-        <v>0.9999101288019469</v>
+        <v>0.9999491721857392</v>
       </c>
       <c r="T9">
-        <v>0.9999680466446227</v>
+        <v>0.9999819289889395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006633693539942</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="D10">
-        <v>0.9854059267182633</v>
+        <v>0.9999641751444293</v>
       </c>
       <c r="E10">
-        <v>1.017689773485133</v>
+        <v>1.000043426511506</v>
       </c>
       <c r="F10">
-        <v>1.006633693539942</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="G10">
-        <v>1.006633693539942</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="H10">
-        <v>0.9734653170650405</v>
+        <v>0.9999348586389346</v>
       </c>
       <c r="I10">
-        <v>0.9734653170650405</v>
+        <v>0.9999348586389346</v>
       </c>
       <c r="J10">
-        <v>1.006633693539942</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="K10">
-        <v>1.006633693539942</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="L10">
-        <v>1.006633693539942</v>
+        <v>1.00001628829183</v>
       </c>
       <c r="M10">
-        <v>0.9900495053024914</v>
+        <v>0.9999755734653824</v>
       </c>
       <c r="N10">
-        <v>0.9900495053024914</v>
+        <v>0.9999755734653824</v>
       </c>
       <c r="O10">
-        <v>0.9885016457744152</v>
+        <v>0.9999717740250645</v>
       </c>
       <c r="P10">
-        <v>0.9955775680483083</v>
+        <v>0.9999891450741982</v>
       </c>
       <c r="Q10">
-        <v>0.9955775680483083</v>
+        <v>0.9999891450741982</v>
       </c>
       <c r="R10">
-        <v>0.9983415994212168</v>
+        <v>0.9999959308786062</v>
       </c>
       <c r="S10">
-        <v>0.9983415994212168</v>
+        <v>0.9999959308786062</v>
       </c>
       <c r="T10">
-        <v>0.999410349648044</v>
+        <v>0.9999985541950599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000577032697857</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="D11">
-        <v>0.9987305389055767</v>
+        <v>0.9992091114104368</v>
       </c>
       <c r="E11">
-        <v>1.001538741932594</v>
+        <v>1.000958653249511</v>
       </c>
       <c r="F11">
-        <v>1.000577032697857</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="G11">
-        <v>1.000577032697857</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="H11">
-        <v>0.9976918832360442</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="I11">
-        <v>0.9976918832360442</v>
+        <v>0.9985620147739913</v>
       </c>
       <c r="J11">
-        <v>1.000577032697857</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="K11">
-        <v>1.000577032697857</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="L11">
-        <v>1.000577032697857</v>
+        <v>1.000359500144599</v>
       </c>
       <c r="M11">
-        <v>0.9991344579669507</v>
+        <v>0.999460757459295</v>
       </c>
       <c r="N11">
-        <v>0.9991344579669507</v>
+        <v>0.999460757459295</v>
       </c>
       <c r="O11">
-        <v>0.998999818279826</v>
+        <v>0.9993768754430089</v>
       </c>
       <c r="P11">
-        <v>0.9996153162105861</v>
+        <v>0.9997603383543963</v>
       </c>
       <c r="Q11">
-        <v>0.9996153162105861</v>
+        <v>0.9997603383543963</v>
       </c>
       <c r="R11">
-        <v>0.9998557453324038</v>
+        <v>0.9999101288019469</v>
       </c>
       <c r="S11">
-        <v>0.9998557453324038</v>
+        <v>0.9999101288019469</v>
       </c>
       <c r="T11">
-        <v>0.9999487103612976</v>
+        <v>0.9999680466446227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001990687378949</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="D12">
-        <v>0.9956205051368453</v>
+        <v>0.9854059267182633</v>
       </c>
       <c r="E12">
-        <v>1.00530847676842</v>
+        <v>1.017689773485133</v>
       </c>
       <c r="F12">
-        <v>1.001990687378949</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="G12">
-        <v>1.001990687378949</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="H12">
-        <v>0.9920372779789444</v>
+        <v>0.9734653170650405</v>
       </c>
       <c r="I12">
-        <v>0.9920372779789444</v>
+        <v>0.9734653170650405</v>
       </c>
       <c r="J12">
-        <v>1.001990687378949</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="K12">
-        <v>1.001990687378949</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="L12">
-        <v>1.001990687378949</v>
+        <v>1.006633693539942</v>
       </c>
       <c r="M12">
-        <v>0.9970139826789469</v>
+        <v>0.9900495053024914</v>
       </c>
       <c r="N12">
-        <v>0.9970139826789469</v>
+        <v>0.9900495053024914</v>
       </c>
       <c r="O12">
-        <v>0.996549490164913</v>
+        <v>0.9885016457744152</v>
       </c>
       <c r="P12">
-        <v>0.9986728842456145</v>
+        <v>0.9955775680483083</v>
       </c>
       <c r="Q12">
-        <v>0.9986728842456145</v>
+        <v>0.9955775680483083</v>
       </c>
       <c r="R12">
-        <v>0.9995023350289483</v>
+        <v>0.9983415994212168</v>
       </c>
       <c r="S12">
-        <v>0.9995023350289483</v>
+        <v>0.9983415994212168</v>
       </c>
       <c r="T12">
-        <v>0.9998230536701764</v>
+        <v>0.999410349648044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986953302268016</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="D13">
-        <v>1.002870277864287</v>
+        <v>0.9987305389055767</v>
       </c>
       <c r="E13">
-        <v>0.9965208781206016</v>
+        <v>1.001538741932594</v>
       </c>
       <c r="F13">
-        <v>0.9986953302268016</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="G13">
-        <v>0.9986953302268016</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="H13">
-        <v>1.005218679741514</v>
+        <v>0.9976918832360442</v>
       </c>
       <c r="I13">
-        <v>1.005218679741514</v>
+        <v>0.9976918832360442</v>
       </c>
       <c r="J13">
-        <v>0.9986953302268016</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="K13">
-        <v>0.9986953302268016</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="L13">
-        <v>0.9986953302268016</v>
+        <v>1.000577032697857</v>
       </c>
       <c r="M13">
-        <v>1.001957004984158</v>
+        <v>0.9991344579669507</v>
       </c>
       <c r="N13">
-        <v>1.001957004984158</v>
+        <v>0.9991344579669507</v>
       </c>
       <c r="O13">
-        <v>1.002261429277534</v>
+        <v>0.998999818279826</v>
       </c>
       <c r="P13">
-        <v>1.000869780065039</v>
+        <v>0.9996153162105861</v>
       </c>
       <c r="Q13">
-        <v>1.000869780065039</v>
+        <v>0.9996153162105861</v>
       </c>
       <c r="R13">
-        <v>1.00032616760548</v>
+        <v>0.9998557453324038</v>
       </c>
       <c r="S13">
-        <v>1.00032616760548</v>
+        <v>0.9998557453324038</v>
       </c>
       <c r="T13">
-        <v>1.000115971067801</v>
+        <v>0.9999487103612976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.011461099999999</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="D14">
-        <v>0.9747856700000013</v>
+        <v>0.9956205051368453</v>
       </c>
       <c r="E14">
-        <v>1.030562799999999</v>
+        <v>1.00530847676842</v>
       </c>
       <c r="F14">
-        <v>1.011461099999999</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="G14">
-        <v>1.011461099999999</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="H14">
-        <v>0.9541557599999997</v>
+        <v>0.9920372779789444</v>
       </c>
       <c r="I14">
-        <v>0.9541557599999997</v>
+        <v>0.9920372779789444</v>
       </c>
       <c r="J14">
-        <v>1.011461099999999</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="K14">
-        <v>1.011461099999999</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="L14">
-        <v>1.011461099999999</v>
+        <v>1.001990687378949</v>
       </c>
       <c r="M14">
-        <v>0.9828084299999995</v>
+        <v>0.9970139826789469</v>
       </c>
       <c r="N14">
-        <v>0.9828084299999995</v>
+        <v>0.9970139826789469</v>
       </c>
       <c r="O14">
-        <v>0.9801341766666667</v>
+        <v>0.996549490164913</v>
       </c>
       <c r="P14">
-        <v>0.9923593199999994</v>
+        <v>0.9986728842456145</v>
       </c>
       <c r="Q14">
-        <v>0.9923593199999994</v>
+        <v>0.9986728842456145</v>
       </c>
       <c r="R14">
-        <v>0.9971347649999993</v>
+        <v>0.9995023350289483</v>
       </c>
       <c r="S14">
-        <v>0.9971347649999993</v>
+        <v>0.9995023350289483</v>
       </c>
       <c r="T14">
-        <v>0.9989812549999996</v>
+        <v>0.9998230536701764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.004298</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="D15">
-        <v>0.99054447</v>
+        <v>1.002870277864287</v>
       </c>
       <c r="E15">
-        <v>1.0114612</v>
+        <v>0.9965208781206016</v>
       </c>
       <c r="F15">
-        <v>1.004298</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="G15">
-        <v>1.004298</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="H15">
-        <v>0.98280813</v>
+        <v>1.005218679741514</v>
       </c>
       <c r="I15">
-        <v>0.98280813</v>
+        <v>1.005218679741514</v>
       </c>
       <c r="J15">
-        <v>1.004298</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="K15">
-        <v>1.004298</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="L15">
-        <v>1.004298</v>
+        <v>0.9986953302268016</v>
       </c>
       <c r="M15">
-        <v>0.993553065</v>
+        <v>1.001957004984158</v>
       </c>
       <c r="N15">
-        <v>0.993553065</v>
+        <v>1.001957004984158</v>
       </c>
       <c r="O15">
-        <v>0.9925502</v>
+        <v>1.002261429277534</v>
       </c>
       <c r="P15">
-        <v>0.99713471</v>
+        <v>1.000869780065039</v>
       </c>
       <c r="Q15">
-        <v>0.99713471</v>
+        <v>1.000869780065039</v>
       </c>
       <c r="R15">
-        <v>0.9989255324999999</v>
+        <v>1.00032616760548</v>
       </c>
       <c r="S15">
-        <v>0.9989255324999999</v>
+        <v>1.00032616760548</v>
       </c>
       <c r="T15">
-        <v>0.9996179666666668</v>
+        <v>1.000115971067801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0042978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D16">
-        <v>0.99054493</v>
+        <v>0.9747856700000013</v>
       </c>
       <c r="E16">
-        <v>1.0114607</v>
+        <v>1.030562799999999</v>
       </c>
       <c r="F16">
-        <v>1.0042978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="G16">
-        <v>1.0042978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H16">
-        <v>0.98280896</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="I16">
-        <v>0.98280896</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="J16">
-        <v>1.0042978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="K16">
-        <v>1.0042978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="L16">
-        <v>1.0042978</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M16">
-        <v>0.99355338</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="N16">
-        <v>0.99355338</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="O16">
-        <v>0.9925505633333334</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P16">
-        <v>0.9971348533333334</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="Q16">
-        <v>0.9971348533333334</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="R16">
-        <v>0.99892559</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="S16">
-        <v>0.99892559</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="T16">
-        <v>0.9996179983333334</v>
+        <v>0.9989812549999996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9966870799999999</v>
+        <v>1.004298</v>
       </c>
       <c r="D17">
-        <v>1.0072884</v>
+        <v>0.99054447</v>
       </c>
       <c r="E17">
-        <v>0.9911655400000001</v>
+        <v>1.0114612</v>
       </c>
       <c r="F17">
-        <v>0.9966870799999999</v>
+        <v>1.004298</v>
       </c>
       <c r="G17">
-        <v>0.9966870799999999</v>
+        <v>1.004298</v>
       </c>
       <c r="H17">
-        <v>1.0132517</v>
+        <v>0.98280813</v>
       </c>
       <c r="I17">
-        <v>1.0132517</v>
+        <v>0.98280813</v>
       </c>
       <c r="J17">
-        <v>0.9966870799999999</v>
+        <v>1.004298</v>
       </c>
       <c r="K17">
-        <v>0.9966870799999999</v>
+        <v>1.004298</v>
       </c>
       <c r="L17">
-        <v>0.9966870799999999</v>
+        <v>1.004298</v>
       </c>
       <c r="M17">
-        <v>1.00496939</v>
+        <v>0.993553065</v>
       </c>
       <c r="N17">
-        <v>1.00496939</v>
+        <v>0.993553065</v>
       </c>
       <c r="O17">
-        <v>1.005742393333333</v>
+        <v>0.9925502</v>
       </c>
       <c r="P17">
-        <v>1.00220862</v>
+        <v>0.99713471</v>
       </c>
       <c r="Q17">
-        <v>1.00220862</v>
+        <v>0.99713471</v>
       </c>
       <c r="R17">
-        <v>1.000828235</v>
+        <v>0.9989255324999999</v>
       </c>
       <c r="S17">
-        <v>1.000828235</v>
+        <v>0.9989255324999999</v>
       </c>
       <c r="T17">
-        <v>1.00029448</v>
+        <v>0.9996179666666668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004297912328768</v>
+        <v>1.0042978</v>
       </c>
       <c r="D18">
-        <v>0.9905446223287678</v>
+        <v>0.99054493</v>
       </c>
       <c r="E18">
-        <v>1.011461060273973</v>
+        <v>1.0114607</v>
       </c>
       <c r="F18">
-        <v>1.004297912328768</v>
+        <v>1.0042978</v>
       </c>
       <c r="G18">
-        <v>1.004297912328768</v>
+        <v>1.0042978</v>
       </c>
       <c r="H18">
-        <v>0.982808405890411</v>
+        <v>0.98280896</v>
       </c>
       <c r="I18">
-        <v>0.982808405890411</v>
+        <v>0.98280896</v>
       </c>
       <c r="J18">
-        <v>1.004297912328768</v>
+        <v>1.0042978</v>
       </c>
       <c r="K18">
-        <v>1.004297912328768</v>
+        <v>1.0042978</v>
       </c>
       <c r="L18">
-        <v>1.004297912328768</v>
+        <v>1.0042978</v>
       </c>
       <c r="M18">
-        <v>0.9935531591095893</v>
+        <v>0.99355338</v>
       </c>
       <c r="N18">
-        <v>0.9935531591095893</v>
+        <v>0.99355338</v>
       </c>
       <c r="O18">
-        <v>0.9925503135159821</v>
+        <v>0.9925505633333334</v>
       </c>
       <c r="P18">
-        <v>0.9971347435159821</v>
+        <v>0.9971348533333334</v>
       </c>
       <c r="Q18">
-        <v>0.9971347435159821</v>
+        <v>0.9971348533333334</v>
       </c>
       <c r="R18">
-        <v>0.9989255357191784</v>
+        <v>0.99892559</v>
       </c>
       <c r="S18">
-        <v>0.9989255357191784</v>
+        <v>0.99892559</v>
       </c>
       <c r="T18">
-        <v>0.9996179709132424</v>
+        <v>0.9996179983333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001941622105263</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="D19">
-        <v>0.9957284505263159</v>
+        <v>1.0072884</v>
       </c>
       <c r="E19">
-        <v>1.005177635789474</v>
+        <v>0.9911655400000001</v>
       </c>
       <c r="F19">
-        <v>1.001941622105263</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="G19">
-        <v>1.001941622105263</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="H19">
-        <v>0.9922335389473684</v>
+        <v>1.0132517</v>
       </c>
       <c r="I19">
-        <v>0.9922335389473684</v>
+        <v>1.0132517</v>
       </c>
       <c r="J19">
-        <v>1.001941622105263</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="K19">
-        <v>1.001941622105263</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="L19">
-        <v>1.001941622105263</v>
+        <v>0.9966870799999999</v>
       </c>
       <c r="M19">
-        <v>0.9970875805263157</v>
+        <v>1.00496939</v>
       </c>
       <c r="N19">
-        <v>0.9970875805263157</v>
+        <v>1.00496939</v>
       </c>
       <c r="O19">
-        <v>0.9966345371929825</v>
+        <v>1.005742393333333</v>
       </c>
       <c r="P19">
-        <v>0.998705594385965</v>
+        <v>1.00220862</v>
       </c>
       <c r="Q19">
-        <v>0.998705594385965</v>
+        <v>1.00220862</v>
       </c>
       <c r="R19">
-        <v>0.9995146013157894</v>
+        <v>1.000828235</v>
       </c>
       <c r="S19">
-        <v>0.9995146013157894</v>
+        <v>1.000828235</v>
       </c>
       <c r="T19">
-        <v>0.9998274152631579</v>
+        <v>1.00029448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001941558421052</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="D20">
-        <v>0.9957285957894738</v>
+        <v>0.9905446223287678</v>
       </c>
       <c r="E20">
-        <v>1.005177446842105</v>
+        <v>1.011461060273973</v>
       </c>
       <c r="F20">
-        <v>1.001941558421052</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="G20">
-        <v>1.001941558421052</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="H20">
-        <v>0.9922338194736843</v>
+        <v>0.982808405890411</v>
       </c>
       <c r="I20">
-        <v>0.9922338194736843</v>
+        <v>0.982808405890411</v>
       </c>
       <c r="J20">
-        <v>1.001941558421052</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="K20">
-        <v>1.001941558421052</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="L20">
-        <v>1.001941558421052</v>
+        <v>1.004297912328768</v>
       </c>
       <c r="M20">
-        <v>0.9970876889473683</v>
+        <v>0.9935531591095893</v>
       </c>
       <c r="N20">
-        <v>0.9970876889473683</v>
+        <v>0.9935531591095893</v>
       </c>
       <c r="O20">
-        <v>0.9966346578947368</v>
+        <v>0.9925503135159821</v>
       </c>
       <c r="P20">
-        <v>0.9987056454385964</v>
+        <v>0.9971347435159821</v>
       </c>
       <c r="Q20">
-        <v>0.9987056454385964</v>
+        <v>0.9971347435159821</v>
       </c>
       <c r="R20">
-        <v>0.9995146236842104</v>
+        <v>0.9989255357191784</v>
       </c>
       <c r="S20">
-        <v>0.9995146236842104</v>
+        <v>0.9989255357191784</v>
       </c>
       <c r="T20">
-        <v>0.9998274228947368</v>
+        <v>0.9996179709132424</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9984981488269123</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="D21">
-        <v>1.003304075882351</v>
+        <v>0.9957284505263159</v>
       </c>
       <c r="E21">
-        <v>0.9959950608903921</v>
+        <v>1.005177635789474</v>
       </c>
       <c r="F21">
-        <v>0.9984981488269123</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="G21">
-        <v>0.9984981488269123</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="H21">
-        <v>1.00600739636995</v>
+        <v>0.9922335389473684</v>
       </c>
       <c r="I21">
-        <v>1.00600739636995</v>
+        <v>0.9922335389473684</v>
       </c>
       <c r="J21">
-        <v>0.9984981488269123</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="K21">
-        <v>0.9984981488269123</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="L21">
-        <v>0.9984981488269123</v>
+        <v>1.001941622105263</v>
       </c>
       <c r="M21">
-        <v>1.002252772598431</v>
+        <v>0.9970875805263157</v>
       </c>
       <c r="N21">
-        <v>1.002252772598431</v>
+        <v>0.9970875805263157</v>
       </c>
       <c r="O21">
-        <v>1.002603207026404</v>
+        <v>0.9966345371929825</v>
       </c>
       <c r="P21">
-        <v>1.001001231341258</v>
+        <v>0.998705594385965</v>
       </c>
       <c r="Q21">
-        <v>1.001001231341258</v>
+        <v>0.998705594385965</v>
       </c>
       <c r="R21">
-        <v>1.000375460712672</v>
+        <v>0.9995146013157894</v>
       </c>
       <c r="S21">
-        <v>1.000375460712672</v>
+        <v>0.9995146013157894</v>
       </c>
       <c r="T21">
-        <v>1.000133496603905</v>
+        <v>0.9998274152631579</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9996122365047422</v>
+        <v>1.001941558421052</v>
       </c>
       <c r="D22">
-        <v>1.000853064714728</v>
+        <v>0.9957285957894738</v>
       </c>
       <c r="E22">
-        <v>0.9989659757597195</v>
+        <v>1.005177446842105</v>
       </c>
       <c r="F22">
-        <v>0.9996122365047422</v>
+        <v>1.001941558421052</v>
       </c>
       <c r="G22">
-        <v>0.9996122365047422</v>
+        <v>1.001941558421052</v>
       </c>
       <c r="H22">
-        <v>1.001551032302386</v>
+        <v>0.9922338194736843</v>
       </c>
       <c r="I22">
-        <v>1.001551032302386</v>
+        <v>0.9922338194736843</v>
       </c>
       <c r="J22">
-        <v>0.9996122365047422</v>
+        <v>1.001941558421052</v>
       </c>
       <c r="K22">
-        <v>0.9996122365047422</v>
+        <v>1.001941558421052</v>
       </c>
       <c r="L22">
-        <v>0.9996122365047422</v>
+        <v>1.001941558421052</v>
       </c>
       <c r="M22">
-        <v>1.000581634403564</v>
+        <v>0.9970876889473683</v>
       </c>
       <c r="N22">
-        <v>1.000581634403564</v>
+        <v>0.9970876889473683</v>
       </c>
       <c r="O22">
-        <v>1.000672111173952</v>
+        <v>0.9966346578947368</v>
       </c>
       <c r="P22">
-        <v>1.000258501770624</v>
+        <v>0.9987056454385964</v>
       </c>
       <c r="Q22">
-        <v>1.000258501770624</v>
+        <v>0.9987056454385964</v>
       </c>
       <c r="R22">
-        <v>1.000096935454153</v>
+        <v>0.9995146236842104</v>
       </c>
       <c r="S22">
-        <v>1.000096935454153</v>
+        <v>0.9995146236842104</v>
       </c>
       <c r="T22">
-        <v>1.000034463715177</v>
+        <v>0.9998274228947368</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9984980588624283</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="D23">
-        <v>1.003304276780935</v>
+        <v>1.003304075882351</v>
       </c>
       <c r="E23">
-        <v>0.9959948191256445</v>
+        <v>0.9959950608903921</v>
       </c>
       <c r="F23">
-        <v>0.9984980588624283</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="G23">
-        <v>0.9984980588624283</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="H23">
-        <v>1.006007763657166</v>
+        <v>1.00600739636995</v>
       </c>
       <c r="I23">
-        <v>1.006007763657166</v>
+        <v>1.00600739636995</v>
       </c>
       <c r="J23">
-        <v>0.9984980588624283</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="K23">
-        <v>0.9984980588624283</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="L23">
-        <v>0.9984980588624283</v>
+        <v>0.9984981488269123</v>
       </c>
       <c r="M23">
-        <v>1.002252911259797</v>
+        <v>1.002252772598431</v>
       </c>
       <c r="N23">
-        <v>1.002252911259797</v>
+        <v>1.002252772598431</v>
       </c>
       <c r="O23">
-        <v>1.00260336643351</v>
+        <v>1.002603207026404</v>
       </c>
       <c r="P23">
-        <v>1.001001293794008</v>
+        <v>1.001001231341258</v>
       </c>
       <c r="Q23">
-        <v>1.001001293794008</v>
+        <v>1.001001231341258</v>
       </c>
       <c r="R23">
-        <v>1.000375485061113</v>
+        <v>1.000375460712672</v>
       </c>
       <c r="S23">
-        <v>1.000375485061113</v>
+        <v>1.000375460712672</v>
       </c>
       <c r="T23">
-        <v>1.000133506025172</v>
+        <v>1.000133496603905</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996122181905323</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="D24">
-        <v>1.000853125577563</v>
+        <v>1.000853064714728</v>
       </c>
       <c r="E24">
-        <v>0.9989659107180929</v>
+        <v>0.9989659757597195</v>
       </c>
       <c r="F24">
-        <v>0.9996122181905323</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="G24">
-        <v>0.9996122181905323</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="H24">
-        <v>1.001551127811809</v>
+        <v>1.001551032302386</v>
       </c>
       <c r="I24">
-        <v>1.001551127811809</v>
+        <v>1.001551032302386</v>
       </c>
       <c r="J24">
-        <v>0.9996122181905323</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="K24">
-        <v>0.9996122181905323</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="L24">
-        <v>0.9996122181905323</v>
+        <v>0.9996122365047422</v>
       </c>
       <c r="M24">
-        <v>1.00058167300117</v>
+        <v>1.000581634403564</v>
       </c>
       <c r="N24">
-        <v>1.00058167300117</v>
+        <v>1.000581634403564</v>
       </c>
       <c r="O24">
-        <v>1.000672157193301</v>
+        <v>1.000672111173952</v>
       </c>
       <c r="P24">
-        <v>1.000258521397624</v>
+        <v>1.000258501770624</v>
       </c>
       <c r="Q24">
-        <v>1.000258521397624</v>
+        <v>1.000258501770624</v>
       </c>
       <c r="R24">
-        <v>1.000096945595851</v>
+        <v>1.000096935454153</v>
       </c>
       <c r="S24">
-        <v>1.000096945595851</v>
+        <v>1.000096935454153</v>
       </c>
       <c r="T24">
-        <v>1.000034469779844</v>
+        <v>1.000034463715177</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.99849794631838</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="D25">
-        <v>1.003304500204499</v>
+        <v>1.003304276780935</v>
       </c>
       <c r="E25">
-        <v>0.9959945439077726</v>
+        <v>0.9959948191256445</v>
       </c>
       <c r="F25">
-        <v>0.99849794631838</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="G25">
-        <v>0.99849794631838</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="H25">
-        <v>1.006008179281576</v>
+        <v>1.006007763657166</v>
       </c>
       <c r="I25">
-        <v>1.006008179281576</v>
+        <v>1.006007763657166</v>
       </c>
       <c r="J25">
-        <v>0.99849794631838</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="K25">
-        <v>0.99849794631838</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="L25">
-        <v>0.99849794631838</v>
+        <v>0.9984980588624283</v>
       </c>
       <c r="M25">
-        <v>1.002253062799978</v>
+        <v>1.002252911259797</v>
       </c>
       <c r="N25">
-        <v>1.002253062799978</v>
+        <v>1.002252911259797</v>
       </c>
       <c r="O25">
-        <v>1.002603541934818</v>
+        <v>1.00260336643351</v>
       </c>
       <c r="P25">
-        <v>1.001001357306112</v>
+        <v>1.001001293794008</v>
       </c>
       <c r="Q25">
-        <v>1.001001357306112</v>
+        <v>1.001001293794008</v>
       </c>
       <c r="R25">
-        <v>1.000375504559179</v>
+        <v>1.000375485061113</v>
       </c>
       <c r="S25">
-        <v>1.000375504559179</v>
+        <v>1.000375485061113</v>
       </c>
       <c r="T25">
-        <v>1.000133510391498</v>
+        <v>1.000133506025172</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9996121855215355</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="D26">
-        <v>1.00085319051952</v>
+        <v>1.000853125577563</v>
       </c>
       <c r="E26">
-        <v>0.9989658418845155</v>
+        <v>0.9989659107180929</v>
       </c>
       <c r="F26">
-        <v>0.9996121855215355</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="G26">
-        <v>0.9996121855215355</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="H26">
-        <v>1.001551243795023</v>
+        <v>1.001551127811809</v>
       </c>
       <c r="I26">
-        <v>1.001551243795023</v>
+        <v>1.001551127811809</v>
       </c>
       <c r="J26">
-        <v>0.9996121855215355</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="K26">
-        <v>0.9996121855215355</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="L26">
-        <v>0.9996121855215355</v>
+        <v>0.9996122181905323</v>
       </c>
       <c r="M26">
-        <v>1.000581714658279</v>
+        <v>1.00058167300117</v>
       </c>
       <c r="N26">
-        <v>1.000581714658279</v>
+        <v>1.00058167300117</v>
       </c>
       <c r="O26">
-        <v>1.000672206612026</v>
+        <v>1.000672157193301</v>
       </c>
       <c r="P26">
-        <v>1.000258538279365</v>
+        <v>1.000258521397624</v>
       </c>
       <c r="Q26">
-        <v>1.000258538279365</v>
+        <v>1.000258521397624</v>
       </c>
       <c r="R26">
-        <v>1.000096950089907</v>
+        <v>1.000096945595851</v>
       </c>
       <c r="S26">
-        <v>1.000096950089907</v>
+        <v>1.000096945595851</v>
       </c>
       <c r="T26">
-        <v>1.000034472127278</v>
+        <v>1.000034469779844</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000683074336731</v>
+        <v>0.99849794631838</v>
       </c>
       <c r="D27">
-        <v>0.9984972252365995</v>
+        <v>1.003304500204499</v>
       </c>
       <c r="E27">
-        <v>1.001821538914926</v>
+        <v>0.9959945439077726</v>
       </c>
       <c r="F27">
-        <v>1.000683074336731</v>
+        <v>0.99849794631838</v>
       </c>
       <c r="G27">
-        <v>1.000683074336731</v>
+        <v>0.99849794631838</v>
       </c>
       <c r="H27">
-        <v>0.9972676834293492</v>
+        <v>1.006008179281576</v>
       </c>
       <c r="I27">
-        <v>0.9972676834293492</v>
+        <v>1.006008179281576</v>
       </c>
       <c r="J27">
-        <v>1.000683074336731</v>
+        <v>0.99849794631838</v>
       </c>
       <c r="K27">
-        <v>1.000683074336731</v>
+        <v>0.99849794631838</v>
       </c>
       <c r="L27">
-        <v>1.000683074336731</v>
+        <v>0.99849794631838</v>
       </c>
       <c r="M27">
-        <v>0.9989753788830402</v>
+        <v>1.002253062799978</v>
       </c>
       <c r="N27">
-        <v>0.9989753788830402</v>
+        <v>1.002253062799978</v>
       </c>
       <c r="O27">
-        <v>0.9988159943342266</v>
+        <v>1.002603541934818</v>
       </c>
       <c r="P27">
-        <v>0.9995446107009371</v>
+        <v>1.001001357306112</v>
       </c>
       <c r="Q27">
-        <v>0.9995446107009371</v>
+        <v>1.001001357306112</v>
       </c>
       <c r="R27">
-        <v>0.9998292266098856</v>
+        <v>1.000375504559179</v>
       </c>
       <c r="S27">
-        <v>0.9998292266098856</v>
+        <v>1.000375504559179</v>
       </c>
       <c r="T27">
-        <v>0.9999392784318447</v>
+        <v>1.000133510391498</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9998815134885781</v>
+        <v>0.9996121855215355</v>
       </c>
       <c r="D28">
-        <v>1.000260683684215</v>
+        <v>1.00085319051952</v>
       </c>
       <c r="E28">
-        <v>0.9996840307369671</v>
+        <v>0.9989658418845155</v>
       </c>
       <c r="F28">
-        <v>0.9998815134885781</v>
+        <v>0.9996121855215355</v>
       </c>
       <c r="G28">
-        <v>0.9998815134885781</v>
+        <v>0.9996121855215355</v>
       </c>
       <c r="H28">
-        <v>1.000473965713346</v>
+        <v>1.001551243795023</v>
       </c>
       <c r="I28">
-        <v>1.000473965713346</v>
+        <v>1.001551243795023</v>
       </c>
       <c r="J28">
-        <v>0.9998815134885781</v>
+        <v>0.9996121855215355</v>
       </c>
       <c r="K28">
-        <v>0.9998815134885781</v>
+        <v>0.9996121855215355</v>
       </c>
       <c r="L28">
-        <v>0.9998815134885781</v>
+        <v>0.9996121855215355</v>
       </c>
       <c r="M28">
-        <v>1.000177739600962</v>
+        <v>1.000581714658279</v>
       </c>
       <c r="N28">
-        <v>1.000177739600962</v>
+        <v>1.000581714658279</v>
       </c>
       <c r="O28">
-        <v>1.000205387628713</v>
+        <v>1.000672206612026</v>
       </c>
       <c r="P28">
-        <v>1.000078997563501</v>
+        <v>1.000258538279365</v>
       </c>
       <c r="Q28">
-        <v>1.000078997563501</v>
+        <v>1.000258538279365</v>
       </c>
       <c r="R28">
-        <v>1.00002962654477</v>
+        <v>1.000096950089907</v>
       </c>
       <c r="S28">
-        <v>1.00002962654477</v>
+        <v>1.000096950089907</v>
       </c>
       <c r="T28">
-        <v>1.00001053676671</v>
+        <v>1.000034472127278</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="D29">
+        <v>0.9984972252365995</v>
+      </c>
+      <c r="E29">
+        <v>1.001821538914926</v>
+      </c>
+      <c r="F29">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="G29">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="H29">
+        <v>0.9972676834293492</v>
+      </c>
+      <c r="I29">
+        <v>0.9972676834293492</v>
+      </c>
+      <c r="J29">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="K29">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="L29">
+        <v>1.000683074336731</v>
+      </c>
+      <c r="M29">
+        <v>0.9989753788830402</v>
+      </c>
+      <c r="N29">
+        <v>0.9989753788830402</v>
+      </c>
+      <c r="O29">
+        <v>0.9988159943342266</v>
+      </c>
+      <c r="P29">
+        <v>0.9995446107009371</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995446107009371</v>
+      </c>
+      <c r="R29">
+        <v>0.9998292266098856</v>
+      </c>
+      <c r="S29">
+        <v>0.9998292266098856</v>
+      </c>
+      <c r="T29">
+        <v>0.9999392784318447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="D30">
+        <v>1.000260683684215</v>
+      </c>
+      <c r="E30">
+        <v>0.9996840307369671</v>
+      </c>
+      <c r="F30">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="G30">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="H30">
+        <v>1.000473965713346</v>
+      </c>
+      <c r="I30">
+        <v>1.000473965713346</v>
+      </c>
+      <c r="J30">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="K30">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="L30">
+        <v>0.9998815134885781</v>
+      </c>
+      <c r="M30">
+        <v>1.000177739600962</v>
+      </c>
+      <c r="N30">
+        <v>1.000177739600962</v>
+      </c>
+      <c r="O30">
+        <v>1.000205387628713</v>
+      </c>
+      <c r="P30">
+        <v>1.000078997563501</v>
+      </c>
+      <c r="Q30">
+        <v>1.000078997563501</v>
+      </c>
+      <c r="R30">
+        <v>1.00002962654477</v>
+      </c>
+      <c r="S30">
+        <v>1.00002962654477</v>
+      </c>
+      <c r="T30">
+        <v>1.00001053676671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9977960794856442</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.004848642183403</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9941228698733698</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9977960794856442</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9977960794856442</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.008815690812178</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.008815690812178</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9977960794856442</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9977960794856442</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9977960794856442</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.003305885148911</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.003305885148911</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.003820137493742</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001469283261155</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001469283261155</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000550982317278</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000550982317278</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000195906887647</v>
       </c>
     </row>
